--- a/data/population_models/models_summary_hainich_male.xlsx
+++ b/data/population_models/models_summary_hainich_male.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:K91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -408,1066 +408,1196 @@
           <t>Deviance</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>ind_per_ha</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~1)pent(~1)N(~1)</t>
+          <t>Phi(~Time)p(~temp + wind + sundur)pent(~Time)N(~1)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.93 [0.918-0.931]</t>
+          <t>0.86 [0.819-0.899]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.02 [0.019-0.027]</t>
+          <t>0.03 [0.023-0.04]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0 [0-0]</t>
+          <t>0.03 [0.016-0.072]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12609 [10671-14956]</t>
+          <t>11342 [9561-13515]</t>
         </is>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G2">
-        <v>1610.944129298572</v>
+        <v>1450.908779701121</v>
       </c>
       <c r="H2">
-        <v>182.9120292985724</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.3263417999935982</v>
       </c>
       <c r="J2">
-        <v>-6245.7958</v>
+        <v>-6415.9184</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>127 [108-151]</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Phi(~time)p(~1)pent(~1)N(~1)</t>
+          <t>Phi(~Time)p(~temp + wind + sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.83 [0.46-0.896]</t>
+          <t>0.86 [0.814-0.901]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.03 [0.022-0.034]</t>
+          <t>0.03 [0.023-0.042]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.02 [0.007-0.04]</t>
+          <t>0.03 [0.015-0.113]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>10745 [9068-12792]</t>
+          <t>11423 [9622-13621]</t>
         </is>
       </c>
       <c r="F3">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G3">
-        <v>1488.586736039975</v>
+        <v>1452.55387165109</v>
       </c>
       <c r="H3">
-        <v>60.55463603997509</v>
+        <v>1.645091949969355</v>
       </c>
       <c r="I3">
-        <v>7.069528926380479E-14</v>
+        <v>0.1433657881530679</v>
       </c>
       <c r="J3">
-        <v>-6388.3908</v>
+        <v>-6416.2983</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>105 [87-127]</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~sundur)pent(~1)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~temp + wind + sundur)pent(~Time)N(~1)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.93 [0.923-0.937]</t>
+          <t>0.86 [0.797-0.906]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.02 [0.018-0.026]</t>
+          <t>0.03 [0.023-0.04]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0 [0-0]</t>
+          <t>0.03 [0.016-0.078]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12170 [10297-14442]</t>
+          <t>11479 [9596-13799]</t>
         </is>
       </c>
       <c r="F4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G4">
-        <v>1596.588167080745</v>
+        <v>1452.75267165109</v>
       </c>
       <c r="H4">
-        <v>168.5560670807454</v>
+        <v>1.843891949969475</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.1298005865796189</v>
       </c>
       <c r="J4">
-        <v>-6262.1642</v>
+        <v>-6416.0995</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>106 [88-129]</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Phi(~time)p(~sundur)pent(~1)N(~1)</t>
+          <t>Phi(~Time)p(~temp + sundur)pent(~Time)N(~1)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.86 [0.727-0.905]</t>
+          <t>0.87 [0.821-0.9]</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.03 [0.022-0.034]</t>
+          <t>0.03 [0.022-0.039]</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.02 [0.012-0.044]</t>
+          <t>0.03 [0.016-0.073]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>10515 [8869-12527]</t>
+          <t>11242 [9474-13401]</t>
         </is>
       </c>
       <c r="F5">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G5">
-        <v>1470.7937</v>
+        <v>1453.225507965152</v>
       </c>
       <c r="H5">
-        <v>42.76160000000004</v>
+        <v>2.316728264031553</v>
       </c>
       <c r="I5">
-        <v>5.165342932242997E-10</v>
+        <v>0.1024711367593504</v>
       </c>
       <c r="J5">
-        <v>-6408.2214</v>
+        <v>-6411.5793</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>123 [104-146]</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~sundur + wind)pent(~1)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~temp + sundur)pent(~Time)N(~1)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.93 [0.921-0.936]</t>
+          <t>0.86 [0.797-0.902]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.02 [0.018-0.027]</t>
+          <t>0.03 [0.022-0.04]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0 [0-0]</t>
+          <t>0.04 [0.017-0.081]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12304 [10405-14607]</t>
+          <t>11571 [9681-13897]</t>
         </is>
       </c>
       <c r="F6">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G6">
-        <v>1593.062806339341</v>
+        <v>1454.003279701121</v>
       </c>
       <c r="H6">
-        <v>165.0307063393414</v>
+        <v>3.094499999999925</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.06945612778462019</v>
       </c>
       <c r="J6">
-        <v>-6267.7045</v>
+        <v>-6412.824</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>107 [90-129]</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Phi(~time)p(~sundur + wind)pent(~1)N(~1)</t>
+          <t>Phi(~Time)p(~temp + wind + sundur)pent(~1)N(~1)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0.86 [0.625-0.91]</t>
+          <t>0.87 [0.822-0.905]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.03 [0.022-0.036]</t>
+          <t>0.03 [0.02-0.033]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.02 [0.013-0.042]</t>
+          <t>0.01 [0.002-0.066]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>10492 [8874-12464]</t>
+          <t>10830 [9092-12965]</t>
         </is>
       </c>
       <c r="F7">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G7">
-        <v>1462.733412632896</v>
+        <v>1454.356707965153</v>
       </c>
       <c r="H7">
-        <v>34.70131263289568</v>
+        <v>3.447928264031589</v>
       </c>
       <c r="I7">
-        <v>2.906486587035502E-08</v>
+        <v>0.05820557650195467</v>
       </c>
       <c r="J7">
-        <v>-6418.3219</v>
+        <v>-6410.448</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>106 [88-128]</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~temp)pent(~1)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~temp + wind + sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.92 [0.908-0.922]</t>
+          <t>0.86 [0.789-0.911]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.02 [0.02-0.029]</t>
+          <t>0.03 [0.023-0.042]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0 [0-0]</t>
+          <t>0.03 [0.013-0.131]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>13382 [11306-15898]</t>
+          <t>11479 [9594-13801]</t>
         </is>
       </c>
       <c r="F8">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G8">
-        <v>1551.145567080745</v>
+        <v>1454.548688528678</v>
       </c>
       <c r="H8">
-        <v>123.1134670807455</v>
+        <v>3.639908827557292</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.05287818566681132</v>
       </c>
       <c r="J8">
-        <v>-6307.6069</v>
+        <v>-6416.3311</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>124 [105-148]</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Phi(~time)p(~temp)pent(~1)N(~1)</t>
+          <t>Phi(~Time)p(~temp + sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0.82 [0.334-0.882]</t>
+          <t>0.86 [0.815-0.9]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.03 [0.022-0.036]</t>
+          <t>0.03 [0.023-0.042]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.01 [0.002-0.036]</t>
+          <t>0.04 [0.016-0.091]</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12675 [10478-15407]</t>
+          <t>11332 [9555-13500]</t>
         </is>
       </c>
       <c r="F9">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G9">
-        <v>1450.5231</v>
+        <v>1454.755379701121</v>
       </c>
       <c r="H9">
-        <v>22.49099999999999</v>
+        <v>3.846599999999853</v>
       </c>
       <c r="I9">
-        <v>1.302578850725042E-05</v>
+        <v>0.04768635500364702</v>
       </c>
       <c r="J9">
-        <v>-6428.4921</v>
+        <v>-6412.0718</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>108 [91-130]</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~temp + sundur)pent(~1)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~temp + sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0.92 [0.912-0.927]</t>
+          <t>0.86 [0.79-0.907]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.02 [0.02-0.028]</t>
+          <t>0.03 [0.022-0.041]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0 [0-1]</t>
+          <t>0.04 [0.014-0.131]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12978 [10963-15421]</t>
+          <t>11577 [9689-13899]</t>
         </is>
       </c>
       <c r="F10">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G10">
-        <v>1522.758506339341</v>
+        <v>1455.95227165109</v>
       </c>
       <c r="H10">
-        <v>94.72640633934134</v>
+        <v>5.043491949969393</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.02621152824554341</v>
       </c>
       <c r="J10">
-        <v>-6338.0088</v>
+        <v>-6412.8999</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>107 [89-128]</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Phi(~time)p(~temp + sundur)pent(~1)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~temp + wind + sundur)pent(~1)N(~1)</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0.86 [0.801-0.915]</t>
+          <t>0.87 [0.804-0.919]</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.03 [0.021-0.035]</t>
+          <t>0.03 [0.02-0.033]</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.01 [0.003-0.042]</t>
+          <t>0.01 [0.001-0.069]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11603 [9591-14115]</t>
+          <t>10729 [8922-12975]</t>
         </is>
       </c>
       <c r="F11">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G11">
-        <v>1440.793012632896</v>
+        <v>1456.280879701121</v>
       </c>
       <c r="H11">
-        <v>12.76091263289572</v>
+        <v>5.372099999999818</v>
       </c>
       <c r="I11">
-        <v>0.001689140007918039</v>
+        <v>0.02224006291628408</v>
       </c>
       <c r="J11">
-        <v>-6440.2623</v>
+        <v>-6410.5463</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>135 [114-161]</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~temp + wind)pent(~1)N(~1)</t>
+          <t>Phi(~Time)p(~temp + sundur)pent(~1)N(~1)</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0.91 [0.906-0.92]</t>
+          <t>0.87 [0.828-0.908]</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.02 [0.02-0.029]</t>
+          <t>0.03 [0.02-0.032]</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0 [0-0]</t>
+          <t>0.01 [0.001-0.092]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>13553 [11444-16109]</t>
+          <t>10625 [8898-12755]</t>
         </is>
       </c>
       <c r="F12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G12">
-        <v>1547.134206339341</v>
+        <v>1457.077051741293</v>
       </c>
       <c r="H12">
-        <v>119.1021063393414</v>
+        <v>6.168272040172496</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.01493652085760562</v>
       </c>
       <c r="J12">
-        <v>-6313.6331</v>
+        <v>-6405.7077</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>108 [91-128]</t>
+        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Phi(~time)p(~temp + wind)pent(~1)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~temp + sundur)pent(~1)N(~1)</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0.82 [0.409-0.885]</t>
+          <t>0.87 [0.806-0.915]</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0.03 [0.022-0.037]</t>
+          <t>0.03 [0.02-0.032]</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.01 [0.002-0.035]</t>
+          <t>0.01 [0.001-0.085]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12515 [10324-15250]</t>
+          <t>10742 [8921-13009]</t>
         </is>
       </c>
       <c r="F13">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G13">
-        <v>1452.190412632896</v>
+        <v>1458.966807965152</v>
       </c>
       <c r="H13">
-        <v>24.15831263289579</v>
+        <v>8.058028264031464</v>
       </c>
       <c r="I13">
-        <v>5.659156242526116E-06</v>
+        <v>0.005806228184520676</v>
       </c>
       <c r="J13">
-        <v>-6428.8649</v>
+        <v>-6405.838</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>115 [96-138]</t>
+        </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~temp + wind + sundur)pent(~1)N(~1)</t>
+          <t>Phi(~1)p(~temp + wind + sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0.92 [0.909-0.924]</t>
+          <t>0.87 [0.843-0.886]</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0.02 [0.02-0.029]</t>
+          <t>0.04 [0.029-0.047]</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0 [0-0]</t>
+          <t>0.05 [0.032-0.078]</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>13200 [11143-15695]</t>
+          <t>12357 [10441-14684]</t>
         </is>
       </c>
       <c r="F14">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G14">
-        <v>1514.329851741293</v>
+        <v>1464.411179701121</v>
       </c>
       <c r="H14">
-        <v>86.2977517412935</v>
+        <v>13.50239999999985</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.0003816487096762115</v>
       </c>
       <c r="J14">
-        <v>-6348.455</v>
+        <v>-6402.416</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>131 [111-156]</t>
+        </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Phi(~time)p(~temp + wind + sundur)pent(~1)N(~1)</t>
+          <t>Phi(~Time)p(~temp)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0.85 [0.415-0.92]</t>
+          <t>0.86 [0.831-0.882]</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0.03 [0.02-0.037]</t>
+          <t>0.03 [0.025-0.038]</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.01 [0.004-0.041]</t>
+          <t>0.02 [0.011-0.065]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11527 [9461-14127]</t>
+          <t>11584 [9790-13765]</t>
         </is>
       </c>
       <c r="F15">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G15">
-        <v>1441.225378723404</v>
+        <v>1467.394207965152</v>
       </c>
       <c r="H15">
-        <v>13.19327872340432</v>
+        <v>16.4854282640315</v>
       </c>
       <c r="I15">
-        <v>0.001360750632443112</v>
+        <v>8.588304641547356E-05</v>
       </c>
       <c r="J15">
-        <v>-6441.8727</v>
+        <v>-6397.4106</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>107 [90-129]</t>
+        </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~time)pent(~1)N(~1)</t>
+          <t>Phi(~1)p(~temp + sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0.93 [0.882-0.96]</t>
+          <t>0.86 [0.84-0.885]</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.02 [0.015-0.034]</t>
+          <t>0.04 [0.029-0.047]</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.01 [0.002-0.092]</t>
+          <t>0.05 [0.035-0.076]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>12048 [9659-15136]</t>
+          <t>12197 [10308-14491]</t>
         </is>
       </c>
       <c r="F16">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G16">
-        <v>1428.0321</v>
+        <v>1468.134907965152</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>17.22612826403156</v>
       </c>
       <c r="I16">
-        <v>0.9969253024216306</v>
+        <v>5.930160938295579E-05</v>
       </c>
       <c r="J16">
-        <v>-6450.983</v>
+        <v>-6396.6699</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>109 [90-131]</t>
+        </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Phi(~time)p(~time)pent(~1)N(~1)</t>
+          <t>Phi(~Time)p(~temp + wind)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0.68 [0.296-0.775]</t>
+          <t>0.86 [0.823-0.888]</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.35 [0.313-0.396]</t>
+          <t>0.03 [0.024-0.04]</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.09 [0.084-0.086]</t>
+          <t>0.02 [0.01-0.113]</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3537 [3313-3789]</t>
+          <t>11587 [9785-13781]</t>
         </is>
       </c>
       <c r="F17">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="G17">
-        <v>2358.611210062893</v>
+        <v>1469.416279701121</v>
       </c>
       <c r="H17">
-        <v>930.5791100628931</v>
+        <v>18.50749999999994</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.124785010982008E-05</v>
       </c>
       <c r="J17">
-        <v>-5540.9215</v>
+        <v>-6397.4109</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>137 [116-163]</t>
+        </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~wind)pent(~1)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~temp + wind)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0.92 [0.916-0.93]</t>
+          <t>0.86 [0.803-0.9]</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.02 [0.019-0.028]</t>
+          <t>0.03 [0.025-0.041]</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0 [0-1]</t>
+          <t>0.02 [0.011-0.085]</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>12745 [10781-15125]</t>
+          <t>11505 [9673-13746]</t>
         </is>
       </c>
       <c r="F18">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G18">
-        <v>1608.330867080745</v>
+        <v>1471.32737165109</v>
       </c>
       <c r="H18">
-        <v>180.2987670807454</v>
+        <v>20.41859194996937</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1.20179889005843E-05</v>
       </c>
       <c r="J18">
-        <v>-6250.4215</v>
+        <v>-6397.5248</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>109 [92-130]</t>
+        </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Phi(~time)p(~wind)pent(~1)N(~1)</t>
+          <t>Phi(~Time)p(~sundur)pent(~Time)N(~1)</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0.83 [0.499-0.892]</t>
+          <t>0.86 [0.816-0.89]</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0.03 [0.022-0.037]</t>
+          <t>0.03 [0.025-0.043]</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.02 [0.008-0.038]</t>
+          <t>0.05 [0.033-0.073]</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>10905 [9220-12957]</t>
+          <t>11252 [9523-13353]</t>
         </is>
       </c>
       <c r="F19">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G19">
-        <v>1482.643</v>
+        <v>1472.480251741293</v>
       </c>
       <c r="H19">
-        <v>54.61090000000013</v>
+        <v>21.57147204017247</v>
       </c>
       <c r="I19">
-        <v>1.380563406948479E-12</v>
+        <v>6.75284945469294E-06</v>
       </c>
       <c r="J19">
-        <v>-6396.3721</v>
+        <v>-6390.3045</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>115 [96-139]</t>
+        </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~1)pent(~time)N(~1)</t>
+          <t>Phi(~Time)p(~sundur + wind)pent(~Time)N(~1)</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0.84 [1-0]</t>
+          <t>0.86 [0.814-0.889]</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0.05 [1-0]</t>
+          <t>0.03 [0.025-0.043]</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.06 [0.636-0]</t>
+          <t>0.05 [0.033-0.072]</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11723 [11723-11723]</t>
+          <t>11297 [9561-13406]</t>
         </is>
       </c>
       <c r="F20">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G20">
-        <v>1481.497836039975</v>
+        <v>1472.538207965152</v>
       </c>
       <c r="H20">
-        <v>53.46573603997513</v>
+        <v>21.6294282640315</v>
       </c>
       <c r="I20">
-        <v>2.447516071184435E-12</v>
+        <v>6.559972725927048E-06</v>
       </c>
       <c r="J20">
-        <v>-6395.4796</v>
+        <v>-6392.2665</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>133 [113-159]</t>
+        </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Phi(~time)p(~1)pent(~time)N(~1)</t>
+          <t>Phi(~Time)p(~sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0.8 [0.536-0.889]</t>
+          <t>0.86 [0.81-0.894]</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0.04 [0.029-0.048]</t>
+          <t>0.03 [0.026-0.044]</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.05 [0.02-0.418]</t>
+          <t>0.05 [0.03-0.091]</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11527 [9535-14011]</t>
+          <t>11296 [9559-13405]</t>
         </is>
       </c>
       <c r="F21">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="G21">
-        <v>1458.837042614708</v>
+        <v>1473.918507965152</v>
       </c>
       <c r="H21">
-        <v>30.80494261470767</v>
+        <v>23.00972826403154</v>
       </c>
       <c r="I21">
-        <v>2.039174174413727E-07</v>
+        <v>3.289831821265321E-06</v>
       </c>
       <c r="J21">
-        <v>-6438.6324</v>
+        <v>-6390.8862</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>109 [92-131]</t>
+        </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~sundur)pent(~time)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~sundur + wind)pent(~Time)N(~1)</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0.84 [1-0]</t>
+          <t>0.86 [0.802-0.902]</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0.04 [1-0]</t>
+          <t>0.03 [0.025-0.043]</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.06 [0.636-0]</t>
+          <t>0.05 [0.032-0.072]</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11565 [11565-11565]</t>
+          <t>11179 [9446-13289]</t>
         </is>
       </c>
       <c r="F22">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G22">
-        <v>1471.2947</v>
+        <v>1473.930579701121</v>
       </c>
       <c r="H22">
-        <v>43.26260000000002</v>
+        <v>23.02179999999998</v>
       </c>
       <c r="I22">
-        <v>4.020762236665851E-10</v>
+        <v>3.270034637399724E-06</v>
       </c>
       <c r="J22">
-        <v>-6407.7204</v>
+        <v>-6392.8966</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>108 [90-131]</t>
+        </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Phi(~time)p(~sundur)pent(~time)N(~1)</t>
+          <t>Phi(~Time)p(~sundur + wind)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0.84 [0.531-0.907]</t>
+          <t>0.86 [0.808-0.896]</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0.03 [0.027-0.045]</t>
+          <t>0.03 [0.025-0.044]</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.05 [0.02-0.672]</t>
+          <t>0.05 [0.029-0.104]</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11385 [9479-13746]</t>
+          <t>11341 [9593-13467]</t>
         </is>
       </c>
       <c r="F23">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="G23">
-        <v>1455.895310062893</v>
+        <v>1474.067579701121</v>
       </c>
       <c r="H23">
-        <v>27.86321006289313</v>
+        <v>23.15879999999993</v>
       </c>
       <c r="I23">
-        <v>8.876534176139878E-07</v>
+        <v>3.053536958715943E-06</v>
       </c>
       <c r="J23">
-        <v>-6443.6374</v>
+        <v>-6392.7596</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>179 [150-215]</t>
+        </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~sundur + wind)pent(~time)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~sundur)pent(~Time)N(~1)</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0.85 [0.809-0.877]</t>
+          <t>0.86 [0.802-0.899]</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0.04 [0.028-0.065]</t>
+          <t>0.03 [0.025-0.043]</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.06 [0.026-0.744]</t>
+          <t>0.05 [0.032-0.074]</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11564 [9749-13777]</t>
+          <t>11232 [9491-13353]</t>
         </is>
       </c>
       <c r="F24">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G24">
-        <v>1473.657412632896</v>
+        <v>1474.480407965152</v>
       </c>
       <c r="H24">
-        <v>45.62531263289566</v>
+        <v>23.57162826403146</v>
       </c>
       <c r="I24">
-        <v>1.233820162340389E-10</v>
+        <v>2.48404044293702E-06</v>
       </c>
       <c r="J24">
-        <v>-6407.398</v>
+        <v>-6390.3243</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>108 [87-135]</t>
+        </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Phi(~time)p(~sundur + wind)pent(~time)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~sundur + wind)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0.84 [0.746-0.912]</t>
+          <t>0.86 [0.798-0.906]</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0.04 [0.027-0.05]</t>
+          <t>0.03 [0.026-0.046]</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.05 [0.019-0.161]</t>
+          <t>0.05 [0.03-0.088]</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11840 [9897-14234]</t>
+          <t>11176 [9447-13282]</t>
         </is>
       </c>
       <c r="F25">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="G25">
-        <v>1461.630474575205</v>
+        <v>1474.80977165109</v>
       </c>
       <c r="H25">
-        <v>33.59837457520462</v>
+        <v>23.90099194996947</v>
       </c>
       <c r="I25">
-        <v>5.045082579112388E-08</v>
+        <v>2.106872461931623E-06</v>
       </c>
       <c r="J25">
-        <v>-6439.9682</v>
+        <v>-6394.0424</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>109 [88-137]</t>
+        </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~temp)pent(~time)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0.84 [0.82-0.861]</t>
+          <t>0.86 [0.797-0.903]</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0.04 [0.034-0.054]</t>
+          <t>0.03 [0.026-0.045]</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.05 [0.036-0.351]</t>
+          <t>0.05 [0.03-0.089]</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>12042 [10144-14356]</t>
+          <t>11236 [9499-13351]</t>
         </is>
       </c>
       <c r="F26">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G26">
-        <v>1480.3876</v>
+        <v>1475.743279701121</v>
       </c>
       <c r="H26">
-        <v>52.35550000000012</v>
+        <v>24.83449999999993</v>
       </c>
       <c r="I26">
-        <v>4.263931754767422E-12</v>
+        <v>1.321081312416867E-06</v>
       </c>
       <c r="J26">
-        <v>-6398.6275</v>
+        <v>-6391.0839</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>129 [107-156]</t>
+        </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Phi(~time)p(~temp)pent(~time)N(~1)</t>
+          <t>Phi(~1)p(~temp + wind + sundur)pent(~Time)N(~1)</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0.81 [0.569-0.891]</t>
+          <t>0.88 [0.853-0.897]</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1477,364 +1607,3041 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.03 [0.012-0.626]</t>
+          <t>0.05 [0.035-0.064]</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11755 [9658-14391]</t>
+          <t>12790 [10806-15197]</t>
         </is>
       </c>
       <c r="F27">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="G27">
-        <v>1455.136010062893</v>
+        <v>1477.311907965152</v>
       </c>
       <c r="H27">
-        <v>27.10391006289319</v>
+        <v>26.40312826403147</v>
       </c>
       <c r="I27">
-        <v>1.297547692159192E-06</v>
+        <v>6.029846403198846E-07</v>
       </c>
       <c r="J27">
-        <v>-6444.3968</v>
+        <v>-6387.4929</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>129 [105-158]</t>
+        </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~temp + sundur)pent(~time)N(~1)</t>
+          <t>Phi(~1)p(~sundur + wind)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0.86 [1-0]</t>
+          <t>0.87 [0.853-0.891]</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0.04 [1-0]</t>
+          <t>0.04 [0.028-0.044]</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.05 [0.727-0]</t>
+          <t>0.05 [0.037-0.1]</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11954 [11954-11954]</t>
+          <t>12230 [10352-14507]</t>
         </is>
       </c>
       <c r="F28">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G28">
-        <v>1468.806212632895</v>
+        <v>1478.922607965153</v>
       </c>
       <c r="H28">
-        <v>40.77411263289559</v>
+        <v>28.01382826403164</v>
       </c>
       <c r="I28">
-        <v>1.395328799861385E-09</v>
+        <v>2.694928135946135E-07</v>
       </c>
       <c r="J28">
-        <v>-6412.2491</v>
+        <v>-6385.8822</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>129 [108-155]</t>
+        </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Phi(~time)p(~temp + sundur)pent(~time)N(~1)</t>
+          <t>Phi(~1)p(~temp + sundur)pent(~Time)N(~1)</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0.92 [0.818-0]</t>
+          <t>0.88 [0.852-0.896]</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0.03 [1-0]</t>
+          <t>0.03 [0.027-0.043]</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.03 [0.909-0]</t>
+          <t>0.05 [0.037-0.065]</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11589 [11589-11589]</t>
+          <t>12645 [10689-15016]</t>
         </is>
       </c>
       <c r="F29">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="G29">
-        <v>1462.543674575204</v>
+        <v>1480.425051741293</v>
       </c>
       <c r="H29">
-        <v>34.51157457520458</v>
+        <v>29.51627204017245</v>
       </c>
       <c r="I29">
-        <v>3.19572513751823E-08</v>
+        <v>1.271439407294767E-07</v>
       </c>
       <c r="J29">
-        <v>-6439.0551</v>
+        <v>-6382.3597</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>129 [109-153]</t>
+        </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~temp + wind)pent(~time)N(~1)</t>
+          <t>Phi(~1)p(~sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0.84 [0.82-0.861]</t>
+          <t>0.87 [0.85-0.893]</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0.04 [0.034-0.055]</t>
+          <t>0.04 [0.028-0.045]</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.05 [-0.506-0.712]</t>
+          <t>0.05 [0.036-0.12]</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>12019 [10119-14337]</t>
+          <t>12104 [10244-14360]</t>
         </is>
       </c>
       <c r="F30">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="G30">
-        <v>1482.363112632896</v>
+        <v>1481.932351741293</v>
       </c>
       <c r="H30">
-        <v>54.33101263289564</v>
+        <v>31.02357204017244</v>
       </c>
       <c r="I30">
-        <v>1.587936485213647E-12</v>
+        <v>5.983973087377943E-08</v>
       </c>
       <c r="J30">
-        <v>-6398.6922</v>
+        <v>-6380.8524</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>106 [88-128]</t>
+        </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Phi(~time)p(~temp + wind)pent(~time)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~temp)pent(~Time)N(~1)</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0.81 [1-0]</t>
+          <t>0.86 [0.821-0.889]</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0.03 [1-0]</t>
+          <t>0.03 [0.021-0.031]</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.03 [0.909-0]</t>
+          <t>0.02 [0.011-0.218]</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11957 [11957-11957]</t>
+          <t>12189 [10091-14799]</t>
         </is>
       </c>
       <c r="F31">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="G31">
-        <v>1456.432574575204</v>
+        <v>1482.278107965152</v>
       </c>
       <c r="H31">
-        <v>28.4004745752045</v>
+        <v>31.36932826403154</v>
       </c>
       <c r="I31">
-        <v>6.785438568732699E-07</v>
+        <v>5.033958392094152E-08</v>
       </c>
       <c r="J31">
-        <v>-6445.1662</v>
+        <v>-6382.5266</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>107 [89-129]</t>
+        </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~temp + wind + sundur)pent(~time)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~temp + wind)pent(~Time)N(~1)</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0.85 [0.826-0.878]</t>
+          <t>0.86 [0.821-0.891]</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0.04 [0.03-0.054]</t>
+          <t>0.03 [0.021-0.031]</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.05 [0.027-0.265]</t>
+          <t>0.02 [0.011-0.218]</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11999 [10106-14310]</t>
+          <t>12201 [10098-14817]</t>
         </is>
       </c>
       <c r="F32">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G32">
-        <v>1469.972278723404</v>
+        <v>1483.955579701121</v>
       </c>
       <c r="H32">
-        <v>41.94017872340441</v>
+        <v>33.04679999999985</v>
       </c>
       <c r="I32">
-        <v>7.788763624011097E-10</v>
+        <v>2.175961777425827E-08</v>
       </c>
       <c r="J32">
-        <v>-6413.1258</v>
+        <v>-6382.8717</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>129 [109-153]</t>
+        </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Phi(~time)p(~temp + wind + sundur)pent(~time)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~temp)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0.85 [0.596-0.924]</t>
+          <t>0.86 [0.821-0.889]</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0.03 [0.022-0.042]</t>
+          <t>0.03 [0.021-0.031]</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.03 [0.007-0.287]</t>
+          <t>0.02 [0.011-0.309]</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11960 [9481-15209]</t>
+          <t>12189 [10091-14798]</t>
         </is>
       </c>
       <c r="F33">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="G33">
-        <v>1453.540741057935</v>
+        <v>1484.300579701121</v>
       </c>
       <c r="H33">
-        <v>25.50864105793471</v>
+        <v>33.39179999999988</v>
       </c>
       <c r="I33">
-        <v>2.880922613697446E-06</v>
+        <v>1.831198669930279E-08</v>
       </c>
       <c r="J33">
-        <v>-6450.1265</v>
+        <v>-6382.5266</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>115 [96-137]</t>
+        </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~wind)pent(~time)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~Time + I(Time^2))pent(~1)N(~1)</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0.84 [1-0]</t>
+          <t>0.95 [0.924-0.969]</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0.05 [1-0]</t>
+          <t>0.02 [0.018-0.033]</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.06 [0.455-0]</t>
+          <t>0.04 [0.024-0.066]</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11693 [11693-11693]</t>
+          <t>12788 [10725-15310]</t>
         </is>
       </c>
       <c r="F34">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G34">
-        <v>1483.1823</v>
+        <v>1486.498107965152</v>
       </c>
       <c r="H34">
-        <v>55.15020000000004</v>
+        <v>35.58932826403156</v>
       </c>
       <c r="I34">
-        <v>1.05426272288329E-12</v>
+        <v>6.103068785677424E-09</v>
       </c>
       <c r="J34">
-        <v>-6395.8328</v>
+        <v>-6378.3066</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>113 [95-136]</t>
+        </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Phi(~time)p(~wind)pent(~time)N(~1)</t>
+          <t>Phi(~Time)p(~Time + I(Time^2))pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0.82 [0.572-0.897]</t>
+          <t>0.81 [0.754-0.853]</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0.04 [0.027-0.046]</t>
+          <t>0.06 [0.028-0.119]</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.04 [0.02-0.502]</t>
+          <t>0.07 [0.051-0.086]</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11094 [9347-13230]</t>
+          <t>10075 [8423-12120]</t>
         </is>
       </c>
       <c r="F35">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="G35">
-        <v>1461.327310062893</v>
+        <v>1487.013579701121</v>
       </c>
       <c r="H35">
-        <v>33.29521006289315</v>
+        <v>36.10479999999984</v>
       </c>
       <c r="I35">
-        <v>5.870831512063617E-08</v>
+        <v>4.716447445297733E-09</v>
       </c>
       <c r="J35">
-        <v>-6438.2054</v>
+        <v>-6379.8136</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>124 [105-147]</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Phi(~Time + I(Time^2))p(~temp)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>0.87 [0.83-0.897]</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>0.02 [0.02-0.029]</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0 [0-1]</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>11364 [9486-13683]</t>
+        </is>
+      </c>
+      <c r="F36">
+        <v>7</v>
+      </c>
+      <c r="G36">
+        <v>1488.448751741294</v>
+      </c>
+      <c r="H36">
+        <v>37.53997204017264</v>
+      </c>
+      <c r="I36">
+        <v>2.301290002195606E-09</v>
+      </c>
+      <c r="J36">
+        <v>-6374.336</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>114 [96-135]</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Phi(~Time + I(Time^2))p(~temp + wind)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>0.87 [0.829-0.899]</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>0.02 [0.02-0.03]</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0 [0-1]</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>11407 [9514-13746]</t>
+        </is>
+      </c>
+      <c r="F37">
+        <v>8</v>
+      </c>
+      <c r="G37">
+        <v>1489.587407965153</v>
+      </c>
+      <c r="H37">
+        <v>38.67862826403166</v>
+      </c>
+      <c r="I37">
+        <v>1.302312752581007E-09</v>
+      </c>
+      <c r="J37">
+        <v>-6375.2173</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>113 [96-135]</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~temp)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>0.88 [0.866-0.901]</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>0.02 [0.02-0.029]</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0 [0-0]</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>10646 [8987-12672]</t>
+        </is>
+      </c>
+      <c r="F38">
+        <v>6</v>
+      </c>
+      <c r="G38">
+        <v>1492.166306339341</v>
+      </c>
+      <c r="H38">
+        <v>41.25752663822027</v>
+      </c>
+      <c r="I38">
+        <v>3.586861657981804E-10</v>
+      </c>
+      <c r="J38">
+        <v>-6368.6011</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>124 [105-148]</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~temp + wind)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>0.88 [0.862-0.903]</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>0.02 [0.02-0.029]</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0 [0-1]</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>10770 [9080-12836]</t>
+        </is>
+      </c>
+      <c r="F39">
+        <v>7</v>
+      </c>
+      <c r="G39">
+        <v>1492.194151741293</v>
+      </c>
+      <c r="H39">
+        <v>41.28537204017243</v>
+      </c>
+      <c r="I39">
+        <v>3.537268889411398E-10</v>
+      </c>
+      <c r="J39">
+        <v>-6370.5906</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>114 [97-135]</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Phi(~Time + I(Time^2))p(~sundur + wind)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>0.87 [0.811-0.917]</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>0.03 [0.021-0.034]</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.02 [0.007-0.049]</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>10554 [8841-12666]</t>
+        </is>
+      </c>
+      <c r="F40">
+        <v>8</v>
+      </c>
+      <c r="G40">
+        <v>1493.479607965153</v>
+      </c>
+      <c r="H40">
+        <v>42.57082826403166</v>
+      </c>
+      <c r="I40">
+        <v>1.860093615347205E-10</v>
+      </c>
+      <c r="J40">
+        <v>-6371.3251</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>113 [95-134]</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~sundur)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>0.86 [0.821-0.899]</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>0.03 [0.02-0.032]</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.02 [0.005-0.053]</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>10612 [8869-12766]</t>
+        </is>
+      </c>
+      <c r="F41">
+        <v>6</v>
+      </c>
+      <c r="G41">
+        <v>1493.649306339341</v>
+      </c>
+      <c r="H41">
+        <v>42.74052663822022</v>
+      </c>
+      <c r="I41">
+        <v>1.708776521953947E-10</v>
+      </c>
+      <c r="J41">
+        <v>-6367.118</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>133 [112-158]</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~temp + wind)pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>0.88 [0.83-0.911]</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>0.03 [0.019-0.035]</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.01 [0-0.241]</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>11073 [9163-13458]</t>
+        </is>
+      </c>
+      <c r="F42">
+        <v>8</v>
+      </c>
+      <c r="G42">
+        <v>1493.909407965152</v>
+      </c>
+      <c r="H42">
+        <v>43.00062826403155</v>
+      </c>
+      <c r="I42">
+        <v>1.500392615146672E-10</v>
+      </c>
+      <c r="J42">
+        <v>-6370.8954</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>111 [91-135]</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~temp)pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>0.88 [0.83-0.912]</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>0.03 [0.019-0.035]</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.01 [0-0.28]</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>10955 [9030-13370]</t>
+        </is>
+      </c>
+      <c r="F43">
+        <v>7</v>
+      </c>
+      <c r="G43">
+        <v>1493.921951741293</v>
+      </c>
+      <c r="H43">
+        <v>43.01317204017255</v>
+      </c>
+      <c r="I43">
+        <v>1.491011769161525E-10</v>
+      </c>
+      <c r="J43">
+        <v>-6368.8628</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>123 [102-149]</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~sundur + wind)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>0.86 [0.816-0.897]</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>0.03 [0.02-0.033]</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.02 [0.006-0.05]</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>10718 [8975-12868]</t>
+        </is>
+      </c>
+      <c r="F44">
+        <v>7</v>
+      </c>
+      <c r="G44">
+        <v>1493.968051741293</v>
+      </c>
+      <c r="H44">
+        <v>43.05927204017257</v>
+      </c>
+      <c r="I44">
+        <v>1.457037011194077E-10</v>
+      </c>
+      <c r="J44">
+        <v>-6368.8167</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>128 [108-152]</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Phi(~Time + I(Time^2))p(~sundur)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>0.87 [0.814-0.914]</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>0.03 [0.02-0.032]</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.02 [0.005-0.052]</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>10496 [8760-12647]</t>
+        </is>
+      </c>
+      <c r="F45">
+        <v>7</v>
+      </c>
+      <c r="G45">
+        <v>1494.821551741293</v>
+      </c>
+      <c r="H45">
+        <v>43.91277204017251</v>
+      </c>
+      <c r="I45">
+        <v>9.509012396479633E-11</v>
+      </c>
+      <c r="J45">
+        <v>-6367.9632</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>114 [96-135]</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Phi(~Time + I(Time^2))p(~1)pent(~Time + I(Time^2))N(~1)</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>0.85 [0.806-0.885]</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>0.03 [0.024-0.035]</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.04 [0.023-0.062]</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>12311 [10275-14818]</t>
+        </is>
+      </c>
+      <c r="F46">
+        <v>8</v>
+      </c>
+      <c r="G46">
+        <v>1498.609307965153</v>
+      </c>
+      <c r="H46">
+        <v>47.70052826403162</v>
+      </c>
+      <c r="I46">
+        <v>1.430983414391326E-11</v>
+      </c>
+      <c r="J46">
+        <v>-6366.1955</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>117 [98-140]</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Phi(~Time + I(Time^2))p(~wind)pent(~Time + I(Time^2))N(~1)</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>0.85 [0.805-0.886]</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>0.03 [0.024-0.035]</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.04 [0.023-0.062]</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>12311 [10275-14821]</t>
+        </is>
+      </c>
+      <c r="F47">
+        <v>9</v>
+      </c>
+      <c r="G47">
+        <v>1500.602679701121</v>
+      </c>
+      <c r="H47">
+        <v>49.69389999999999</v>
+      </c>
+      <c r="I47">
+        <v>5.281769294775616E-12</v>
+      </c>
+      <c r="J47">
+        <v>-6366.2245</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>134 [113-159]</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~sundur + wind)pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>0.87 [0.847-0.89]</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>0.04 [0.029-0.046]</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.06 [0.046-0.071]</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>12321 [10420-14626]</t>
+        </is>
+      </c>
+      <c r="F48">
+        <v>7</v>
+      </c>
+      <c r="G48">
+        <v>1502.613651741294</v>
+      </c>
+      <c r="H48">
+        <v>51.70487204017263</v>
+      </c>
+      <c r="I48">
+        <v>1.932423887529331E-12</v>
+      </c>
+      <c r="J48">
+        <v>-6360.1711</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>112 [93-136]</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~sundur)pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>0.87 [0.846-0.89]</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>0.04 [0.029-0.046]</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.06 [0.047-0.071]</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>12253 [10366-14542]</t>
+        </is>
+      </c>
+      <c r="F49">
+        <v>6</v>
+      </c>
+      <c r="G49">
+        <v>1502.815306339341</v>
+      </c>
+      <c r="H49">
+        <v>51.90652663822016</v>
+      </c>
+      <c r="I49">
+        <v>1.747083482446036E-12</v>
+      </c>
+      <c r="J49">
+        <v>-6357.952</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>123 [102-150]</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Phi(~Time + I(Time^2))p(~1)pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>0.87 [0.83-0.9]</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>0.03 [0.021-0.03]</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.03 [0.016-0.758]</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>11234 [9387-13512]</t>
+        </is>
+      </c>
+      <c r="F50">
+        <v>7</v>
+      </c>
+      <c r="G50">
+        <v>1505.829651741293</v>
+      </c>
+      <c r="H50">
+        <v>54.92087204017253</v>
+      </c>
+      <c r="I50">
+        <v>3.870409085110756E-13</v>
+      </c>
+      <c r="J50">
+        <v>-6356.9552</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>129 [109-154]</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Phi(~Time + I(Time^2))p(~Time)pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>0.88 [0.786-0.939]</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>0.02 [0.014-0.036]</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.03 [0.017-0.863]</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>10255 [8064-13177]</t>
+        </is>
+      </c>
+      <c r="F51">
+        <v>8</v>
+      </c>
+      <c r="G51">
+        <v>1506.721207965152</v>
+      </c>
+      <c r="H51">
+        <v>55.8124282640315</v>
+      </c>
+      <c r="I51">
+        <v>2.47832293681768E-13</v>
+      </c>
+      <c r="J51">
+        <v>-6358.0836</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>115 [97-137]</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Phi(~Time + I(Time^2))p(~wind)pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>0.87 [0.829-0.901]</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>0.03 [0.021-0.031]</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.03 [0.016-0.758]</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>11235 [9388-13514]</t>
+        </is>
+      </c>
+      <c r="F52">
+        <v>8</v>
+      </c>
+      <c r="G52">
+        <v>1507.741407965153</v>
+      </c>
+      <c r="H52">
+        <v>56.83262826403165</v>
+      </c>
+      <c r="I52">
+        <v>1.488073151672149E-13</v>
+      </c>
+      <c r="J52">
+        <v>-6357.0633</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>116 [97-139]</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Phi(~Time + I(Time^2))p(~Time + I(Time^2))pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>0.87 [0.761-0.937]</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>0.02 [0.014-0.047]</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.03 [0.017-0.89]</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>10296 [8224-13005]</t>
+        </is>
+      </c>
+      <c r="F53">
+        <v>9</v>
+      </c>
+      <c r="G53">
+        <v>1508.581679701121</v>
+      </c>
+      <c r="H53">
+        <v>57.6728999999998</v>
+      </c>
+      <c r="I53">
+        <v>9.776008982713603E-14</v>
+      </c>
+      <c r="J53">
+        <v>-6358.2456</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>112 [95-134]</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~1)pent(~Time + I(Time^2))N(~1)</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>0.89 [0.863-0.904]</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>0.02 [0.021-0.03]</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.02 [0.013-0.217]</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>10667 [9003-12700]</t>
+        </is>
+      </c>
+      <c r="F54">
+        <v>7</v>
+      </c>
+      <c r="G54">
+        <v>1510.368151741294</v>
+      </c>
+      <c r="H54">
+        <v>59.45937204017264</v>
+      </c>
+      <c r="I54">
+        <v>4.001604081853621E-14</v>
+      </c>
+      <c r="J54">
+        <v>-6352.4167</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>110 [91-133]</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~Time + I(Time^2))pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>0.87 [0.792-0.919]</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>0.03 [0.016-0.05]</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.03 [0.017-0.845]</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>10099 [8190-12552]</t>
+        </is>
+      </c>
+      <c r="F55">
+        <v>8</v>
+      </c>
+      <c r="G55">
+        <v>1510.453707965152</v>
+      </c>
+      <c r="H55">
+        <v>59.54492826403157</v>
+      </c>
+      <c r="I55">
+        <v>3.834032760301847E-14</v>
+      </c>
+      <c r="J55">
+        <v>-6354.351</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>104 [81-133]</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~1)pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>0.87 [0.821-0.901]</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>0.03 [0.023-0.04]</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.04 [0.018-0.079]</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>11345 [9550-13541]</t>
+        </is>
+      </c>
+      <c r="F56">
+        <v>6</v>
+      </c>
+      <c r="G56">
+        <v>1510.600906339341</v>
+      </c>
+      <c r="H56">
+        <v>59.69212663822032</v>
+      </c>
+      <c r="I56">
+        <v>3.561985101270756E-14</v>
+      </c>
+      <c r="J56">
+        <v>-6350.1665</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>118 [98-143]</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Phi(~Time + I(Time^2))p(~Time + I(Time^2))pent(~Time + I(Time^2))N(~1)</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>0.87 [0.753-0.936]</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>0.02 [0.014-0.05]</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.04 [0.015-0.888]</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>10338 [8260-13055]</t>
+        </is>
+      </c>
+      <c r="F57">
+        <v>10</v>
+      </c>
+      <c r="G57">
+        <v>1510.62997165109</v>
+      </c>
+      <c r="H57">
+        <v>59.72119194996935</v>
+      </c>
+      <c r="I57">
+        <v>3.510594324268772E-14</v>
+      </c>
+      <c r="J57">
+        <v>-6358.2222</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>102 [83-127]</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~wind)pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>0.87 [0.82-0.901]</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>0.03 [0.023-0.04]</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.03 [0.017-0.08]</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>11399 [9597-13600]</t>
+        </is>
+      </c>
+      <c r="F58">
+        <v>7</v>
+      </c>
+      <c r="G58">
+        <v>1511.407951741293</v>
+      </c>
+      <c r="H58">
+        <v>60.49917204017243</v>
+      </c>
+      <c r="I58">
+        <v>2.379273766984361E-14</v>
+      </c>
+      <c r="J58">
+        <v>-6351.3768</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>104 [83-131]</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~wind)pent(~Time + I(Time^2))N(~1)</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>0.88 [0.863-0.904]</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>0.03 [0.021-0.03]</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.02 [0.013-0.399]</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>10743 [9059-12802]</t>
+        </is>
+      </c>
+      <c r="F59">
+        <v>8</v>
+      </c>
+      <c r="G59">
+        <v>1511.431307965152</v>
+      </c>
+      <c r="H59">
+        <v>60.52252826403151</v>
+      </c>
+      <c r="I59">
+        <v>2.351649952560896E-14</v>
+      </c>
+      <c r="J59">
+        <v>-6353.3734</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>130 [110-154]</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~Time)pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>0.88 [0.82-0.921]</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>0.03 [0.018-0.042]</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.04 [0.021-0.088]</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>10886 [9023-13209]</t>
+        </is>
+      </c>
+      <c r="F60">
+        <v>7</v>
+      </c>
+      <c r="G60">
+        <v>1511.565451741293</v>
+      </c>
+      <c r="H60">
+        <v>60.65667204017245</v>
+      </c>
+      <c r="I60">
+        <v>2.19909365657657E-14</v>
+      </c>
+      <c r="J60">
+        <v>-6351.2193</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>115 [97-137]</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~Time)pent(~Time + I(Time^2))N(~1)</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>0.89 [0.838-0.928]</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>0.02 [0.016-0.035]</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.02 [0.014-0.491]</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>10159 [8093-12872]</t>
+        </is>
+      </c>
+      <c r="F61">
+        <v>8</v>
+      </c>
+      <c r="G61">
+        <v>1512.031007965152</v>
+      </c>
+      <c r="H61">
+        <v>61.12222826403149</v>
+      </c>
+      <c r="I61">
+        <v>1.742406474892564E-14</v>
+      </c>
+      <c r="J61">
+        <v>-6352.7738</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>113 [95-137]</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~Time + I(Time^2))pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>0.92 [0.87-0.947]</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>0.03 [0.018-0.038]</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.04 [0.019-0.091]</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>11682 [9688-14161]</t>
+        </is>
+      </c>
+      <c r="F62">
+        <v>7</v>
+      </c>
+      <c r="G62">
+        <v>1513.962751741293</v>
+      </c>
+      <c r="H62">
+        <v>63.05397204017254</v>
+      </c>
+      <c r="I62">
+        <v>6.632490629348094E-15</v>
+      </c>
+      <c r="J62">
+        <v>-6348.822</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>126 [107-150]</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~Time + I(Time^2))pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>0.92 [0.873-0.949]</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>0.02 [0.017-0.035]</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.03 [0.015-0.059]</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>12735 [10581-15399]</t>
+        </is>
+      </c>
+      <c r="F63">
+        <v>6</v>
+      </c>
+      <c r="G63">
+        <v>1514.087506339341</v>
+      </c>
+      <c r="H63">
+        <v>63.17872663822027</v>
+      </c>
+      <c r="I63">
+        <v>6.23141288973515E-15</v>
+      </c>
+      <c r="J63">
+        <v>-6346.6798</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>108 [91-128]</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~temp + wind + sundur)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>0.92 [0.909-0.924]</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>0.02 [0.02-0.029]</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0 [0-0]</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>13200 [11143-15695]</t>
+        </is>
+      </c>
+      <c r="F64">
+        <v>7</v>
+      </c>
+      <c r="G64">
+        <v>1514.329851741293</v>
+      </c>
+      <c r="H64">
+        <v>63.42107204017248</v>
+      </c>
+      <c r="I64">
+        <v>5.520289994751856E-15</v>
+      </c>
+      <c r="J64">
+        <v>-6348.455</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>124 [104-150]</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~Time + I(Time^2))pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>0.92 [0.825-0.962]</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>0.02 [0.017-0.036]</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.03 [0.015-0.059]</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>12737 [10434-15632]</t>
+        </is>
+      </c>
+      <c r="F65">
+        <v>7</v>
+      </c>
+      <c r="G65">
+        <v>1516.104951741293</v>
+      </c>
+      <c r="H65">
+        <v>65.19617204017254</v>
+      </c>
+      <c r="I65">
+        <v>2.272499652581767E-15</v>
+      </c>
+      <c r="J65">
+        <v>-6346.6799</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>122 [103-145]</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~Time + I(Time^2))pent(~Time + I(Time^2))N(~1)</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>0.94 [0.9-0.966]</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>0.02 [0.015-0.028]</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.02 [0.009-0.308]</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>11297 [8945-14392]</t>
+        </is>
+      </c>
+      <c r="F66">
+        <v>8</v>
+      </c>
+      <c r="G66">
+        <v>1517.504907965152</v>
+      </c>
+      <c r="H66">
+        <v>66.59612826403145</v>
+      </c>
+      <c r="I66">
+        <v>1.12851463108072E-15</v>
+      </c>
+      <c r="J66">
+        <v>-6347.2998</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>114 [97-135]</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~1)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>0.88 [0.841-0.913]</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>0.02 [0.019-0.03]</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0 [0-0.83]</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>10360 [8620-12524]</t>
+        </is>
+      </c>
+      <c r="F67">
+        <v>5</v>
+      </c>
+      <c r="G67">
+        <v>1517.782867080745</v>
+      </c>
+      <c r="H67">
+        <v>66.87408737962437</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>-6340.9695</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>113 [96-135]</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~wind)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>0.88 [0.838-0.911]</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>0.02 [0.019-0.031]</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0 [0-0.448]</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>10471 [8723-12642]</t>
+        </is>
+      </c>
+      <c r="F68">
+        <v>6</v>
+      </c>
+      <c r="G68">
+        <v>1518.790606339341</v>
+      </c>
+      <c r="H68">
+        <v>67.88182663822022</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>-6341.9768</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>124 [105-147]</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Phi(~Time + I(Time^2))p(~1)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>0.87 [0.821-0.915]</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>0.02 [0.019-0.03]</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0 [0-0.699]</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>10516 [8733-12737]</t>
+        </is>
+      </c>
+      <c r="F69">
+        <v>6</v>
+      </c>
+      <c r="G69">
+        <v>1518.972406339341</v>
+      </c>
+      <c r="H69">
+        <v>68.06362663822028</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>-6341.795</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>115 [97-136]</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~Time)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>0.88 [0.824-0.915]</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>0.03 [0.017-0.037]</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0 [0-1]</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>10666 [8593-13342]</t>
+        </is>
+      </c>
+      <c r="F70">
+        <v>6</v>
+      </c>
+      <c r="G70">
+        <v>1519.556906339341</v>
+      </c>
+      <c r="H70">
+        <v>68.64812663822022</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>-6341.2104</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>113 [95-134]</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Phi(~Time + I(Time^2))p(~wind)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>0.87 [0.819-0.916]</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>0.02 [0.019-0.031]</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0 [0-0.446]</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>10561 [8782-12774]</t>
+        </is>
+      </c>
+      <c r="F71">
+        <v>7</v>
+      </c>
+      <c r="G71">
+        <v>1520.410151741293</v>
+      </c>
+      <c r="H71">
+        <v>69.50137204017255</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>-6342.3747</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>130 [109-154]</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Phi(~Time + I(Time^2))p(~Time)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>0.87 [0.803-0.918]</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>0.03 [0.017-0.037]</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0 [0-0.978]</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>10780 [8664-13519]</t>
+        </is>
+      </c>
+      <c r="F72">
+        <v>7</v>
+      </c>
+      <c r="G72">
+        <v>1520.823551741293</v>
+      </c>
+      <c r="H72">
+        <v>69.91477204017247</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>-6341.9612</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>117 [99-139]</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~temp + sundur)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>0.92 [0.912-0.927]</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>0.02 [0.02-0.028]</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0 [0-1]</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>12978 [10963-15421]</t>
+        </is>
+      </c>
+      <c r="F73">
+        <v>6</v>
+      </c>
+      <c r="G73">
+        <v>1522.758506339341</v>
+      </c>
+      <c r="H73">
+        <v>71.84972663822032</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>-6338.0088</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>123 [102-149]</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~temp + wind)pent(~Time + I(Time^2))N(~1)</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>0.87 [0.843-0.893]</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>0.03 [0.027-0.045]</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.04 [0.025-0.069]</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>12963 [10925-15441]</t>
+        </is>
+      </c>
+      <c r="F74">
+        <v>8</v>
+      </c>
+      <c r="G74">
+        <v>1523.470507965153</v>
+      </c>
+      <c r="H74">
+        <v>72.56172826403167</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>-6341.3342</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>123 [104-146]</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~temp)pent(~Time + I(Time^2))N(~1)</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>0.87 [0.841-0.891]</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>0.04 [0.028-0.046]</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.04 [0.027-0.069]</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>12839 [10827-15284]</t>
+        </is>
+      </c>
+      <c r="F75">
+        <v>7</v>
+      </c>
+      <c r="G75">
+        <v>1523.560951741293</v>
+      </c>
+      <c r="H75">
+        <v>72.65217204017245</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>-6339.2238</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>114 [97-136]</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~temp + wind)pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>0.88 [0.858-0.902]</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>0.03 [0.025-0.041]</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.04 [0.026-0.062]</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>13277 [11216-15775]</t>
+        </is>
+      </c>
+      <c r="F76">
+        <v>7</v>
+      </c>
+      <c r="G76">
+        <v>1524.191251741293</v>
+      </c>
+      <c r="H76">
+        <v>73.28247204017248</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>-6338.5935</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>117 [98-140]</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~temp)pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>0.88 [0.857-0.901]</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>0.03 [0.025-0.041]</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.04 [0.028-0.062]</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>13162 [11124-15631]</t>
+        </is>
+      </c>
+      <c r="F77">
+        <v>6</v>
+      </c>
+      <c r="G77">
+        <v>1524.728706339341</v>
+      </c>
+      <c r="H77">
+        <v>73.81992663822029</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>-6336.0387</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>131 [110-156]</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Phi(~Time + I(Time^2))p(~Time)pent(~Time + I(Time^2))N(~1)</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>0.96 [0.838-0.97]</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>0.03 [0.023-0.038]</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.07 [0.052-0.104]</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>10538 [8830-12644]</t>
+        </is>
+      </c>
+      <c r="F78">
+        <v>9</v>
+      </c>
+      <c r="G78">
+        <v>1526.675179701121</v>
+      </c>
+      <c r="H78">
+        <v>75.76639999999998</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>-6340.1521</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>117 [99-139]</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~Time)pent(~Time + I(Time^2))N(~1)</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>0.9 [0.86-0.934]</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>0.03 [0.022-0.045]</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.06 [0.045-0.09]</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>10891 [9223-12918]</t>
+        </is>
+      </c>
+      <c r="F79">
+        <v>7</v>
+      </c>
+      <c r="G79">
+        <v>1528.162951741293</v>
+      </c>
+      <c r="H79">
+        <v>77.25417204017253</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>-6334.6218</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>116 [98-139]</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~Time)pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>0.91 [0.869-0.942]</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>0.03 [0.021-0.042]</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.06 [0.045-0.085]</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>11132 [9409-13231]</t>
+        </is>
+      </c>
+      <c r="F80">
+        <v>6</v>
+      </c>
+      <c r="G80">
+        <v>1532.820006339341</v>
+      </c>
+      <c r="H80">
+        <v>81.91122663822034</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>-6327.9473</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>125 [105-148]</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~1)pent(~Time + I(Time^2))N(~1)</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>0.86 [0.836-0.886]</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>0.04 [0.029-0.048]</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.05 [0.038-0.073]</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>12500 [10552-14867]</t>
+        </is>
+      </c>
+      <c r="F81">
+        <v>6</v>
+      </c>
+      <c r="G81">
+        <v>1537.733106339341</v>
+      </c>
+      <c r="H81">
+        <v>86.82432663822033</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>-6323.0343</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>115 [97-138]</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~wind)pent(~Time + I(Time^2))N(~1)</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>0.86 [0.838-0.887]</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>0.04 [0.029-0.048]</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.05 [0.037-0.073]</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>12583 [10617-14971]</t>
+        </is>
+      </c>
+      <c r="F82">
+        <v>7</v>
+      </c>
+      <c r="G82">
+        <v>1538.563251741293</v>
+      </c>
+      <c r="H82">
+        <v>87.65447204017255</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>-6324.2215</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>116 [97-139]</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~1)pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>0.87 [0.849-0.894]</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>0.03 [0.028-0.044]</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.05 [0.04-0.067]</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>12784 [10811-15174]</t>
+        </is>
+      </c>
+      <c r="F83">
+        <v>5</v>
+      </c>
+      <c r="G83">
+        <v>1540.514367080745</v>
+      </c>
+      <c r="H83">
+        <v>89.60558737962447</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>-6318.238</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>110 [93-130]</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~wind)pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>0.87 [0.85-0.894]</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>0.03 [0.027-0.044]</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.05 [0.039-0.067]</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>12856 [10868-15265]</t>
+        </is>
+      </c>
+      <c r="F84">
+        <v>6</v>
+      </c>
+      <c r="G84">
+        <v>1541.078106339341</v>
+      </c>
+      <c r="H84">
+        <v>90.16932663822035</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>-6319.6892</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>103 [82-130]</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~temp + wind)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>0.91 [0.906-0.92]</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>0.02 [0.02-0.029]</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0 [0-0]</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>13553 [11444-16109]</t>
+        </is>
+      </c>
+      <c r="F85">
+        <v>6</v>
+      </c>
+      <c r="G85">
+        <v>1547.134206339341</v>
+      </c>
+      <c r="H85">
+        <v>96.22542663822037</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>-6313.6331</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>106 [89-128]</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~temp)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>0.92 [0.908-0.922]</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>0.02 [0.02-0.029]</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0 [0-0]</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>13382 [11306-15898]</t>
+        </is>
+      </c>
+      <c r="F86">
+        <v>5</v>
+      </c>
+      <c r="G86">
+        <v>1551.145567080745</v>
+      </c>
+      <c r="H86">
+        <v>100.2367873796245</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>-6307.6069</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>114 [90-145]</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~Time)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>0.96 [0.907-0.986]</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>0.03 [0.023-0.038]</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.08 [0.078-0.083]</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>17758 [14871-21268]</t>
+        </is>
+      </c>
+      <c r="F87">
+        <v>5</v>
+      </c>
+      <c r="G87">
+        <v>1566.417367080745</v>
+      </c>
+      <c r="H87">
+        <v>115.5085873796245</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>-6292.335</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>102 [85-122]</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~sundur + wind)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>0.93 [0.921-0.936]</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>0.02 [0.018-0.027]</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0 [0-0]</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>12304 [10405-14607]</t>
+        </is>
+      </c>
+      <c r="F88">
+        <v>6</v>
+      </c>
+      <c r="G88">
+        <v>1593.062806339341</v>
+      </c>
+      <c r="H88">
+        <v>142.1540266382203</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>-6267.7045</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>104 [83-132]</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~sundur)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>0.93 [0.923-0.937]</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>0.02 [0.018-0.026]</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0 [0-0]</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>12170 [10297-14442]</t>
+        </is>
+      </c>
+      <c r="F89">
+        <v>5</v>
+      </c>
+      <c r="G89">
+        <v>1596.588167080745</v>
+      </c>
+      <c r="H89">
+        <v>145.6793873796244</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>-6262.1642</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>127 [107-151]</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~wind)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>0.92 [0.916-0.93]</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>0.02 [0.019-0.028]</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0 [0-1]</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>12745 [10781-15125]</t>
+        </is>
+      </c>
+      <c r="F90">
+        <v>5</v>
+      </c>
+      <c r="G90">
+        <v>1608.330867080745</v>
+      </c>
+      <c r="H90">
+        <v>157.4220873796244</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>-6250.4215</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>109 [92-129]</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~1)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>0.93 [0.918-0.931]</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>0.02 [0.019-0.027]</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0 [0-0]</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>12609 [10671-14956]</t>
+        </is>
+      </c>
+      <c r="F91">
+        <v>4</v>
+      </c>
+      <c r="G91">
+        <v>1610.944129298572</v>
+      </c>
+      <c r="H91">
+        <v>160.0353495974514</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>-6245.7958</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>124 [104-150]</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/data/population_models/models_summary_hainich_male.xlsx
+++ b/data/population_models/models_summary_hainich_male.xlsx
@@ -457,7 +457,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>127 [108-151]</t>
+          <t>93 [79-111]</t>
         </is>
       </c>
     </row>
@@ -504,7 +504,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>105 [87-127]</t>
+          <t>77 [64-93]</t>
         </is>
       </c>
     </row>
@@ -551,7 +551,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>106 [88-129]</t>
+          <t>78 [65-94]</t>
         </is>
       </c>
     </row>
@@ -598,7 +598,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>123 [104-146]</t>
+          <t>90 [76-107]</t>
         </is>
       </c>
     </row>
@@ -645,7 +645,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>107 [90-129]</t>
+          <t>79 [66-95]</t>
         </is>
       </c>
     </row>
@@ -692,7 +692,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>106 [88-128]</t>
+          <t>78 [65-94]</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>124 [105-148]</t>
+          <t>91 [77-108]</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>108 [91-130]</t>
+          <t>79 [66-95]</t>
         </is>
       </c>
     </row>
@@ -833,7 +833,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>107 [89-128]</t>
+          <t>78 [65-94]</t>
         </is>
       </c>
     </row>
@@ -880,7 +880,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>135 [114-161]</t>
+          <t>99 [84-118]</t>
         </is>
       </c>
     </row>
@@ -927,7 +927,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>108 [91-128]</t>
+          <t>79 [67-94]</t>
         </is>
       </c>
     </row>
@@ -974,7 +974,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>115 [96-138]</t>
+          <t>84 [70-101]</t>
         </is>
       </c>
     </row>
@@ -1021,7 +1021,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>131 [111-156]</t>
+          <t>96 [81-114]</t>
         </is>
       </c>
     </row>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>107 [90-129]</t>
+          <t>79 [66-94]</t>
         </is>
       </c>
     </row>
@@ -1115,7 +1115,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>109 [90-131]</t>
+          <t>80 [66-96]</t>
         </is>
       </c>
     </row>
@@ -1162,7 +1162,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>137 [116-163]</t>
+          <t>100 [85-119]</t>
         </is>
       </c>
     </row>
@@ -1209,7 +1209,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>109 [92-130]</t>
+          <t>80 [67-95]</t>
         </is>
       </c>
     </row>
@@ -1256,7 +1256,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>115 [96-139]</t>
+          <t>84 [70-102]</t>
         </is>
       </c>
     </row>
@@ -1303,7 +1303,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>133 [113-159]</t>
+          <t>98 [83-116]</t>
         </is>
       </c>
     </row>
@@ -1350,7 +1350,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>109 [92-131]</t>
+          <t>80 [67-96]</t>
         </is>
       </c>
     </row>
@@ -1397,7 +1397,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>108 [90-131]</t>
+          <t>79 [66-96]</t>
         </is>
       </c>
     </row>
@@ -1444,7 +1444,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>179 [150-215]</t>
+          <t>132 [110-158]</t>
         </is>
       </c>
     </row>
@@ -1491,7 +1491,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>108 [87-135]</t>
+          <t>79 [64-99]</t>
         </is>
       </c>
     </row>
@@ -1538,7 +1538,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>109 [88-137]</t>
+          <t>80 [64-100]</t>
         </is>
       </c>
     </row>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>129 [107-156]</t>
+          <t>94 [78-114]</t>
         </is>
       </c>
     </row>
@@ -1632,7 +1632,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>129 [105-158]</t>
+          <t>94 [77-116]</t>
         </is>
       </c>
     </row>
@@ -1679,7 +1679,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>129 [108-155]</t>
+          <t>95 [79-113]</t>
         </is>
       </c>
     </row>
@@ -1726,7 +1726,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>129 [109-153]</t>
+          <t>94 [80-112]</t>
         </is>
       </c>
     </row>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>106 [88-128]</t>
+          <t>78 [65-94]</t>
         </is>
       </c>
     </row>
@@ -1820,7 +1820,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>107 [89-129]</t>
+          <t>78 [65-95]</t>
         </is>
       </c>
     </row>
@@ -1867,7 +1867,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>129 [109-153]</t>
+          <t>95 [80-112]</t>
         </is>
       </c>
     </row>
@@ -1914,7 +1914,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>115 [96-137]</t>
+          <t>84 [71-100]</t>
         </is>
       </c>
     </row>
@@ -1961,7 +1961,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>113 [95-136]</t>
+          <t>83 [70-100]</t>
         </is>
       </c>
     </row>
@@ -2008,7 +2008,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>124 [105-147]</t>
+          <t>91 [77-108]</t>
         </is>
       </c>
     </row>
@@ -2055,7 +2055,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>114 [96-135]</t>
+          <t>83 [71-99]</t>
         </is>
       </c>
     </row>
@@ -2102,7 +2102,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>113 [96-135]</t>
+          <t>83 [70-99]</t>
         </is>
       </c>
     </row>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>124 [105-148]</t>
+          <t>91 [77-108]</t>
         </is>
       </c>
     </row>
@@ -2196,7 +2196,7 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>114 [97-135]</t>
+          <t>84 [71-99]</t>
         </is>
       </c>
     </row>
@@ -2243,7 +2243,7 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>113 [95-134]</t>
+          <t>83 [70-98]</t>
         </is>
       </c>
     </row>
@@ -2290,7 +2290,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>133 [112-158]</t>
+          <t>97 [82-116]</t>
         </is>
       </c>
     </row>
@@ -2337,7 +2337,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>111 [91-135]</t>
+          <t>81 [67-99]</t>
         </is>
       </c>
     </row>
@@ -2384,7 +2384,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>123 [102-149]</t>
+          <t>90 [75-110]</t>
         </is>
       </c>
     </row>
@@ -2431,7 +2431,7 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>128 [108-152]</t>
+          <t>94 [79-111]</t>
         </is>
       </c>
     </row>
@@ -2478,7 +2478,7 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>114 [96-135]</t>
+          <t>83 [70-99]</t>
         </is>
       </c>
     </row>
@@ -2525,7 +2525,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>117 [98-140]</t>
+          <t>86 [72-103]</t>
         </is>
       </c>
     </row>
@@ -2572,7 +2572,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>134 [113-159]</t>
+          <t>98 [83-117]</t>
         </is>
       </c>
     </row>
@@ -2619,7 +2619,7 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>112 [93-136]</t>
+          <t>82 [68-100]</t>
         </is>
       </c>
     </row>
@@ -2666,7 +2666,7 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>123 [102-150]</t>
+          <t>90 [75-110]</t>
         </is>
       </c>
     </row>
@@ -2713,7 +2713,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>129 [109-154]</t>
+          <t>95 [80-113]</t>
         </is>
       </c>
     </row>
@@ -2760,7 +2760,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>115 [97-137]</t>
+          <t>84 [71-100]</t>
         </is>
       </c>
     </row>
@@ -2807,7 +2807,7 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>116 [97-139]</t>
+          <t>85 [71-102]</t>
         </is>
       </c>
     </row>
@@ -2854,7 +2854,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>112 [95-134]</t>
+          <t>82 [70-98]</t>
         </is>
       </c>
     </row>
@@ -2901,7 +2901,7 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>110 [91-133]</t>
+          <t>81 [67-98]</t>
         </is>
       </c>
     </row>
@@ -2948,7 +2948,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>104 [81-133]</t>
+          <t>76 [60-98]</t>
         </is>
       </c>
     </row>
@@ -2995,7 +2995,7 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>118 [98-143]</t>
+          <t>87 [72-105]</t>
         </is>
       </c>
     </row>
@@ -3042,7 +3042,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>102 [83-127]</t>
+          <t>75 [61-93]</t>
         </is>
       </c>
     </row>
@@ -3089,7 +3089,7 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>104 [83-131]</t>
+          <t>76 [61-96]</t>
         </is>
       </c>
     </row>
@@ -3136,7 +3136,7 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>130 [110-154]</t>
+          <t>95 [81-113]</t>
         </is>
       </c>
     </row>
@@ -3183,7 +3183,7 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>115 [97-137]</t>
+          <t>84 [71-101]</t>
         </is>
       </c>
     </row>
@@ -3230,7 +3230,7 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>113 [95-137]</t>
+          <t>83 [70-100]</t>
         </is>
       </c>
     </row>
@@ -3277,7 +3277,7 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>126 [107-150]</t>
+          <t>93 [78-110]</t>
         </is>
       </c>
     </row>
@@ -3324,7 +3324,7 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>108 [91-128]</t>
+          <t>79 [67-94]</t>
         </is>
       </c>
     </row>
@@ -3371,7 +3371,7 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>124 [104-150]</t>
+          <t>91 [76-110]</t>
         </is>
       </c>
     </row>
@@ -3418,7 +3418,7 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>122 [103-145]</t>
+          <t>90 [76-106]</t>
         </is>
       </c>
     </row>
@@ -3465,7 +3465,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>114 [97-135]</t>
+          <t>84 [71-99]</t>
         </is>
       </c>
     </row>
@@ -3512,7 +3512,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>113 [96-135]</t>
+          <t>83 [70-99]</t>
         </is>
       </c>
     </row>
@@ -3559,7 +3559,7 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>124 [105-147]</t>
+          <t>91 [77-107]</t>
         </is>
       </c>
     </row>
@@ -3606,7 +3606,7 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>115 [97-136]</t>
+          <t>84 [71-100]</t>
         </is>
       </c>
     </row>
@@ -3653,7 +3653,7 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>113 [95-134]</t>
+          <t>83 [70-98]</t>
         </is>
       </c>
     </row>
@@ -3700,7 +3700,7 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>130 [109-154]</t>
+          <t>95 [80-113]</t>
         </is>
       </c>
     </row>
@@ -3747,7 +3747,7 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>117 [99-139]</t>
+          <t>86 [73-102]</t>
         </is>
       </c>
     </row>
@@ -3794,7 +3794,7 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>123 [102-149]</t>
+          <t>90 [75-110]</t>
         </is>
       </c>
     </row>
@@ -3841,7 +3841,7 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>123 [104-146]</t>
+          <t>90 [76-107]</t>
         </is>
       </c>
     </row>
@@ -3888,7 +3888,7 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>114 [97-136]</t>
+          <t>84 [71-100]</t>
         </is>
       </c>
     </row>
@@ -3935,7 +3935,7 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>117 [98-140]</t>
+          <t>86 [72-103]</t>
         </is>
       </c>
     </row>
@@ -3982,7 +3982,7 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>131 [110-156]</t>
+          <t>96 [81-114]</t>
         </is>
       </c>
     </row>
@@ -4029,7 +4029,7 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>117 [99-139]</t>
+          <t>86 [72-102]</t>
         </is>
       </c>
     </row>
@@ -4076,7 +4076,7 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>116 [98-139]</t>
+          <t>85 [72-102]</t>
         </is>
       </c>
     </row>
@@ -4123,7 +4123,7 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>125 [105-148]</t>
+          <t>92 [77-109]</t>
         </is>
       </c>
     </row>
@@ -4170,7 +4170,7 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>115 [97-138]</t>
+          <t>85 [71-101]</t>
         </is>
       </c>
     </row>
@@ -4217,7 +4217,7 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>116 [97-139]</t>
+          <t>85 [71-102]</t>
         </is>
       </c>
     </row>
@@ -4264,7 +4264,7 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>110 [93-130]</t>
+          <t>81 [68-96]</t>
         </is>
       </c>
     </row>
@@ -4311,7 +4311,7 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>103 [82-130]</t>
+          <t>75 [60-95]</t>
         </is>
       </c>
     </row>
@@ -4358,7 +4358,7 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>106 [89-128]</t>
+          <t>78 [65-94]</t>
         </is>
       </c>
     </row>
@@ -4405,7 +4405,7 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>114 [90-145]</t>
+          <t>84 [66-107]</t>
         </is>
       </c>
     </row>
@@ -4452,7 +4452,7 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>102 [85-122]</t>
+          <t>75 [62-90]</t>
         </is>
       </c>
     </row>
@@ -4499,7 +4499,7 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>104 [83-132]</t>
+          <t>77 [61-97]</t>
         </is>
       </c>
     </row>
@@ -4546,7 +4546,7 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>127 [107-151]</t>
+          <t>93 [79-111]</t>
         </is>
       </c>
     </row>
@@ -4593,7 +4593,7 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>109 [92-129]</t>
+          <t>80 [67-95]</t>
         </is>
       </c>
     </row>
@@ -4640,7 +4640,7 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>124 [104-150]</t>
+          <t>91 [76-110]</t>
         </is>
       </c>
     </row>

--- a/data/population_models/models_summary_hainich_male.xlsx
+++ b/data/population_models/models_summary_hainich_male.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K91"/>
+  <dimension ref="A1:L91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,50 +365,55 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>i</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Phi</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>p</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pent</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>npar</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>AICc</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>DeltaAICc</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>weight</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Deviance</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>ind_per_ha</t>
         </is>
@@ -420,44 +425,47 @@
           <t>Phi(~Time)p(~temp + wind + sundur)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2">
+        <v>50</v>
+      </c>
+      <c r="C2" t="inlineStr">
         <is>
           <t>0.86 [0.819-0.899]</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>0.03 [0.023-0.04]</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>0.03 [0.016-0.072]</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>11342 [9561-13515]</t>
         </is>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>9</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>1450.908779701121</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>0</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>0.3263417999935982</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>-6415.9184</v>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>93 [79-111]</t>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>115 [97-137]</t>
         </is>
       </c>
     </row>
@@ -467,44 +475,47 @@
           <t>Phi(~Time)p(~temp + wind + sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3">
+        <v>80</v>
+      </c>
+      <c r="C3" t="inlineStr">
         <is>
           <t>0.86 [0.814-0.901]</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>0.03 [0.023-0.042]</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>0.03 [0.015-0.113]</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>11423 [9622-13621]</t>
         </is>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>10</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>1452.55387165109</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>1.645091949969355</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>0.1433657881530679</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>-6416.2983</v>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>77 [64-93]</t>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>115 [97-138]</t>
         </is>
       </c>
     </row>
@@ -514,44 +525,47 @@
           <t>Phi(~Time + I(Time^2))p(~temp + wind + sundur)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4">
+        <v>51</v>
+      </c>
+      <c r="C4" t="inlineStr">
         <is>
           <t>0.86 [0.797-0.906]</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>0.03 [0.023-0.04]</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>0.03 [0.016-0.078]</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>11479 [9596-13799]</t>
         </is>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>10</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>1452.75267165109</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>1.843891949969475</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>0.1298005865796189</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>-6416.0995</v>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>78 [65-94]</t>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>116 [97-139]</t>
         </is>
       </c>
     </row>
@@ -561,44 +575,47 @@
           <t>Phi(~Time)p(~temp + sundur)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5">
+        <v>44</v>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>0.87 [0.821-0.9]</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>0.03 [0.022-0.039]</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>0.03 [0.016-0.073]</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>11242 [9474-13401]</t>
         </is>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>8</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>1453.225507965152</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>2.316728264031553</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>0.1024711367593504</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>-6411.5793</v>
       </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>90 [76-107]</t>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>114 [96-135]</t>
         </is>
       </c>
     </row>
@@ -608,44 +625,47 @@
           <t>Phi(~Time + I(Time^2))p(~temp + sundur)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6">
+        <v>45</v>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>0.86 [0.797-0.902]</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>0.03 [0.022-0.04]</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>0.04 [0.017-0.081]</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>11571 [9681-13897]</t>
         </is>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>9</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>1454.003279701121</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>3.094499999999925</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>0.06945612778462019</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>-6412.824</v>
       </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>79 [66-95]</t>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>117 [98-140]</t>
         </is>
       </c>
     </row>
@@ -655,44 +675,47 @@
           <t>Phi(~Time)p(~temp + wind + sundur)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7">
+        <v>20</v>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>0.87 [0.822-0.905]</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>0.03 [0.02-0.033]</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>0.01 [0.002-0.066]</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>10830 [9092-12965]</t>
         </is>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>8</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>1454.356707965153</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>3.447928264031589</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>0.05820557650195467</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>-6410.448</v>
       </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>78 [65-94]</t>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>109 [92-131]</t>
         </is>
       </c>
     </row>
@@ -702,44 +725,47 @@
           <t>Phi(~Time + I(Time^2))p(~temp + wind + sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8">
+        <v>81</v>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>0.86 [0.789-0.911]</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>0.03 [0.023-0.042]</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>0.03 [0.013-0.131]</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>11479 [9594-13801]</t>
         </is>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>11</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>1454.548688528678</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>3.639908827557292</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>0.05287818566681132</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>-6416.3311</v>
       </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>91 [77-108]</t>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>116 [97-139]</t>
         </is>
       </c>
     </row>
@@ -749,44 +775,47 @@
           <t>Phi(~Time)p(~temp + sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9">
+        <v>74</v>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>0.86 [0.815-0.9]</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>0.03 [0.023-0.042]</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>0.04 [0.016-0.091]</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>11332 [9555-13500]</t>
         </is>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>9</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>1454.755379701121</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>3.846599999999853</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>0.04768635500364702</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>-6412.0718</v>
       </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>79 [66-95]</t>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>114 [97-136]</t>
         </is>
       </c>
     </row>
@@ -796,44 +825,47 @@
           <t>Phi(~Time + I(Time^2))p(~temp + sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10">
+        <v>75</v>
+      </c>
+      <c r="C10" t="inlineStr">
         <is>
           <t>0.86 [0.79-0.907]</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>0.03 [0.022-0.041]</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>0.04 [0.014-0.131]</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>11577 [9689-13899]</t>
         </is>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>10</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>1455.95227165109</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>5.043491949969393</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>0.02621152824554341</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>-6412.8999</v>
       </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>78 [65-94]</t>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>117 [98-140]</t>
         </is>
       </c>
     </row>
@@ -843,44 +875,47 @@
           <t>Phi(~Time + I(Time^2))p(~temp + wind + sundur)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11">
+        <v>21</v>
+      </c>
+      <c r="C11" t="inlineStr">
         <is>
           <t>0.87 [0.804-0.919]</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>0.03 [0.02-0.033]</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>0.01 [0.001-0.069]</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>10729 [8922-12975]</t>
         </is>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>9</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>1456.280879701121</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>5.372099999999818</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>0.02224006291628408</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>-6410.5463</v>
       </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>99 [84-118]</t>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>108 [90-131]</t>
         </is>
       </c>
     </row>
@@ -890,44 +925,47 @@
           <t>Phi(~Time)p(~temp + sundur)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12">
+        <v>14</v>
+      </c>
+      <c r="C12" t="inlineStr">
         <is>
           <t>0.87 [0.828-0.908]</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>0.03 [0.02-0.032]</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>0.01 [0.001-0.092]</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>10625 [8898-12755]</t>
         </is>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>7</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>1457.077051741293</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>6.168272040172496</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>0.01493652085760562</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>-6405.7077</v>
       </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>79 [67-94]</t>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>107 [90-129]</t>
         </is>
       </c>
     </row>
@@ -937,44 +975,47 @@
           <t>Phi(~Time + I(Time^2))p(~temp + sundur)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13">
+        <v>15</v>
+      </c>
+      <c r="C13" t="inlineStr">
         <is>
           <t>0.87 [0.806-0.915]</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>0.03 [0.02-0.032]</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>0.01 [0.001-0.085]</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>10742 [8921-13009]</t>
         </is>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>8</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>1458.966807965152</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>8.058028264031464</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>0.005806228184520676</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>-6405.838</v>
       </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>84 [70-101]</t>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>109 [90-131]</t>
         </is>
       </c>
     </row>
@@ -984,44 +1025,47 @@
           <t>Phi(~1)p(~temp + wind + sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14">
+        <v>79</v>
+      </c>
+      <c r="C14" t="inlineStr">
         <is>
           <t>0.87 [0.843-0.886]</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>0.04 [0.029-0.047]</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>0.05 [0.032-0.078]</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>12357 [10441-14684]</t>
         </is>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>9</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>1464.411179701121</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>13.50239999999985</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>0.0003816487096762115</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>-6402.416</v>
       </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>96 [81-114]</t>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>125 [105-148]</t>
         </is>
       </c>
     </row>
@@ -1031,44 +1075,47 @@
           <t>Phi(~Time)p(~temp)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15">
+        <v>71</v>
+      </c>
+      <c r="C15" t="inlineStr">
         <is>
           <t>0.86 [0.831-0.882]</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>0.03 [0.025-0.038]</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>0.02 [0.011-0.065]</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>11584 [9790-13765]</t>
         </is>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>8</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>1467.394207965152</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>16.4854282640315</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>8.588304641547356E-05</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>-6397.4106</v>
       </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>79 [66-94]</t>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>117 [99-139]</t>
         </is>
       </c>
     </row>
@@ -1078,44 +1125,47 @@
           <t>Phi(~1)p(~temp + sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16">
+        <v>73</v>
+      </c>
+      <c r="C16" t="inlineStr">
         <is>
           <t>0.86 [0.84-0.885]</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>0.04 [0.029-0.047]</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>0.05 [0.035-0.076]</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>12197 [10308-14491]</t>
         </is>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>8</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>1468.134907965152</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>17.22612826403156</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>5.930160938295579E-05</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>-6396.6699</v>
       </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>80 [66-96]</t>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>123 [104-146]</t>
         </is>
       </c>
     </row>
@@ -1125,44 +1175,47 @@
           <t>Phi(~Time)p(~temp + wind)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17">
+        <v>77</v>
+      </c>
+      <c r="C17" t="inlineStr">
         <is>
           <t>0.86 [0.823-0.888]</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>0.03 [0.024-0.04]</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>0.02 [0.01-0.113]</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>11587 [9785-13781]</t>
         </is>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>9</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>1469.416279701121</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>18.50749999999994</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>3.124785010982008E-05</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>-6397.4109</v>
       </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>100 [85-119]</t>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>117 [99-139]</t>
         </is>
       </c>
     </row>
@@ -1172,44 +1225,47 @@
           <t>Phi(~Time + I(Time^2))p(~temp + wind)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18">
+        <v>78</v>
+      </c>
+      <c r="C18" t="inlineStr">
         <is>
           <t>0.86 [0.803-0.9]</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>0.03 [0.025-0.041]</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>0.02 [0.011-0.085]</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>11505 [9673-13746]</t>
         </is>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>10</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>1471.32737165109</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>20.41859194996937</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>1.20179889005843E-05</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>-6397.5248</v>
       </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>80 [67-95]</t>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>116 [98-139]</t>
         </is>
       </c>
     </row>
@@ -1219,44 +1275,47 @@
           <t>Phi(~Time)p(~sundur)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19">
+        <v>35</v>
+      </c>
+      <c r="C19" t="inlineStr">
         <is>
           <t>0.86 [0.816-0.89]</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>0.03 [0.025-0.043]</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>0.05 [0.033-0.073]</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>11252 [9523-13353]</t>
         </is>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>7</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>1472.480251741293</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>21.57147204017247</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>6.75284945469294E-06</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>-6390.3045</v>
       </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>84 [70-102]</t>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>114 [96-135]</t>
         </is>
       </c>
     </row>
@@ -1266,44 +1325,47 @@
           <t>Phi(~Time)p(~sundur + wind)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20">
+        <v>38</v>
+      </c>
+      <c r="C20" t="inlineStr">
         <is>
           <t>0.86 [0.814-0.889]</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>0.03 [0.025-0.043]</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>0.05 [0.033-0.072]</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>11297 [9561-13406]</t>
         </is>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>8</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>1472.538207965152</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>21.6294282640315</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>6.559972725927048E-06</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>-6392.2665</v>
       </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>98 [83-116]</t>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>114 [97-135]</t>
         </is>
       </c>
     </row>
@@ -1313,44 +1375,47 @@
           <t>Phi(~Time)p(~sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21">
+        <v>65</v>
+      </c>
+      <c r="C21" t="inlineStr">
         <is>
           <t>0.86 [0.81-0.894]</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>0.03 [0.026-0.044]</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>0.05 [0.03-0.091]</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>11296 [9559-13405]</t>
         </is>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>8</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>1473.918507965152</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>23.00972826403154</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>3.289831821265321E-06</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>-6390.8862</v>
       </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>80 [67-96]</t>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>114 [97-135]</t>
         </is>
       </c>
     </row>
@@ -1360,44 +1425,47 @@
           <t>Phi(~Time + I(Time^2))p(~sundur + wind)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22">
+        <v>39</v>
+      </c>
+      <c r="C22" t="inlineStr">
         <is>
           <t>0.86 [0.802-0.902]</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>0.03 [0.025-0.043]</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>0.05 [0.032-0.072]</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>11179 [9446-13289]</t>
         </is>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>9</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>1473.930579701121</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>23.02179999999998</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>3.270034637399724E-06</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>-6392.8966</v>
       </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>79 [66-96]</t>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>113 [95-134]</t>
         </is>
       </c>
     </row>
@@ -1407,44 +1475,47 @@
           <t>Phi(~Time)p(~sundur + wind)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23">
+        <v>68</v>
+      </c>
+      <c r="C23" t="inlineStr">
         <is>
           <t>0.86 [0.808-0.896]</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>0.03 [0.025-0.044]</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>0.05 [0.029-0.104]</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>11341 [9593-13467]</t>
         </is>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>9</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>1474.067579701121</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>23.15879999999993</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>3.053536958715943E-06</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>-6392.7596</v>
       </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>132 [110-158]</t>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>115 [97-136]</t>
         </is>
       </c>
     </row>
@@ -1454,44 +1525,47 @@
           <t>Phi(~Time + I(Time^2))p(~sundur)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24">
+        <v>36</v>
+      </c>
+      <c r="C24" t="inlineStr">
         <is>
           <t>0.86 [0.802-0.899]</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>0.03 [0.025-0.043]</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>0.05 [0.032-0.074]</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>11232 [9491-13353]</t>
         </is>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>8</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>1474.480407965152</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>23.57162826403146</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>2.48404044293702E-06</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>-6390.3243</v>
       </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>79 [64-99]</t>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>113 [96-135]</t>
         </is>
       </c>
     </row>
@@ -1501,44 +1575,47 @@
           <t>Phi(~Time + I(Time^2))p(~sundur + wind)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25">
+        <v>69</v>
+      </c>
+      <c r="C25" t="inlineStr">
         <is>
           <t>0.86 [0.798-0.906]</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>0.03 [0.026-0.046]</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>0.05 [0.03-0.088]</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>11176 [9447-13282]</t>
         </is>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>10</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>1474.80977165109</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>23.90099194996947</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>2.106872461931623E-06</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>-6394.0424</v>
       </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>80 [64-100]</t>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>113 [95-134]</t>
         </is>
       </c>
     </row>
@@ -1548,44 +1625,47 @@
           <t>Phi(~Time + I(Time^2))p(~sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26">
+        <v>66</v>
+      </c>
+      <c r="C26" t="inlineStr">
         <is>
           <t>0.86 [0.797-0.903]</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>0.03 [0.026-0.045]</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>0.05 [0.03-0.089]</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>11236 [9499-13351]</t>
         </is>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>9</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>1475.743279701121</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>24.83449999999993</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>1.321081312416867E-06</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>-6391.0839</v>
       </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>94 [78-114]</t>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>113 [96-135]</t>
         </is>
       </c>
     </row>
@@ -1595,44 +1675,47 @@
           <t>Phi(~1)p(~temp + wind + sundur)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27">
+        <v>49</v>
+      </c>
+      <c r="C27" t="inlineStr">
         <is>
           <t>0.88 [0.853-0.897]</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>0.03 [0.026-0.043]</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>0.05 [0.035-0.064]</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>12790 [10806-15197]</t>
         </is>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>8</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>1477.311907965152</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>26.40312826403147</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>6.029846403198846E-07</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>-6387.4929</v>
       </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>94 [77-116]</t>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>129 [109-154]</t>
         </is>
       </c>
     </row>
@@ -1642,44 +1725,47 @@
           <t>Phi(~1)p(~sundur + wind)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28">
+        <v>67</v>
+      </c>
+      <c r="C28" t="inlineStr">
         <is>
           <t>0.87 [0.853-0.891]</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>0.04 [0.028-0.044]</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>0.05 [0.037-0.1]</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>12230 [10352-14507]</t>
         </is>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>8</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>1478.922607965153</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>28.01382826403164</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>2.694928135946135E-07</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>-6385.8822</v>
       </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>95 [79-113]</t>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>124 [105-147]</t>
         </is>
       </c>
     </row>
@@ -1689,44 +1775,47 @@
           <t>Phi(~1)p(~temp + sundur)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29">
+        <v>43</v>
+      </c>
+      <c r="C29" t="inlineStr">
         <is>
           <t>0.88 [0.852-0.896]</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>0.03 [0.027-0.043]</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>0.05 [0.037-0.065]</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>12645 [10689-15016]</t>
         </is>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>7</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>1480.425051741293</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>29.51627204017245</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>1.271439407294767E-07</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>-6382.3597</v>
       </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>94 [80-112]</t>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>128 [108-152]</t>
         </is>
       </c>
     </row>
@@ -1736,44 +1825,47 @@
           <t>Phi(~1)p(~sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30">
+        <v>64</v>
+      </c>
+      <c r="C30" t="inlineStr">
         <is>
           <t>0.87 [0.85-0.893]</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>0.04 [0.028-0.045]</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>0.05 [0.036-0.12]</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>12104 [10244-14360]</t>
         </is>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>7</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>1481.932351741293</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>31.02357204017244</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>5.983973087377943E-08</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>-6380.8524</v>
       </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>78 [65-94]</t>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>122 [103-145]</t>
         </is>
       </c>
     </row>
@@ -1783,44 +1875,47 @@
           <t>Phi(~Time + I(Time^2))p(~temp)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31">
+        <v>42</v>
+      </c>
+      <c r="C31" t="inlineStr">
         <is>
           <t>0.86 [0.821-0.889]</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>0.03 [0.021-0.031]</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>0.02 [0.011-0.218]</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>12189 [10091-14799]</t>
         </is>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>8</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>1482.278107965152</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>31.36932826403154</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>5.033958392094152E-08</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>-6382.5266</v>
       </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>78 [65-95]</t>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>123 [102-149]</t>
         </is>
       </c>
     </row>
@@ -1830,44 +1925,47 @@
           <t>Phi(~Time + I(Time^2))p(~temp + wind)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32">
+        <v>48</v>
+      </c>
+      <c r="C32" t="inlineStr">
         <is>
           <t>0.86 [0.821-0.891]</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>0.03 [0.021-0.031]</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>0.02 [0.011-0.218]</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>12201 [10098-14817]</t>
         </is>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>9</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>1483.955579701121</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>33.04679999999985</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>2.175961777425827E-08</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>-6382.8717</v>
       </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>95 [80-112]</t>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>123 [102-150]</t>
         </is>
       </c>
     </row>
@@ -1877,44 +1975,47 @@
           <t>Phi(~Time + I(Time^2))p(~temp)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33">
+        <v>72</v>
+      </c>
+      <c r="C33" t="inlineStr">
         <is>
           <t>0.86 [0.821-0.889]</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>0.03 [0.021-0.031]</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>0.02 [0.011-0.309]</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>12189 [10091-14798]</t>
         </is>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>9</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>1484.300579701121</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>33.39179999999988</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>1.831198669930279E-08</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>-6382.5266</v>
       </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>84 [71-100]</t>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>123 [102-149]</t>
         </is>
       </c>
     </row>
@@ -1924,44 +2025,47 @@
           <t>Phi(~Time + I(Time^2))p(~Time + I(Time^2))pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34">
+        <v>27</v>
+      </c>
+      <c r="C34" t="inlineStr">
         <is>
           <t>0.95 [0.924-0.969]</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>0.02 [0.018-0.033]</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>0.04 [0.024-0.066]</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>12788 [10725-15310]</t>
         </is>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>8</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>1486.498107965152</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>35.58932826403156</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>6.103068785677424E-09</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>-6378.3066</v>
       </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>83 [70-100]</t>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>129 [108-155]</t>
         </is>
       </c>
     </row>
@@ -1971,44 +2075,47 @@
           <t>Phi(~Time)p(~Time + I(Time^2))pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35">
+        <v>86</v>
+      </c>
+      <c r="C35" t="inlineStr">
         <is>
           <t>0.81 [0.754-0.853]</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>0.06 [0.028-0.119]</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>0.07 [0.051-0.086]</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>10075 [8423-12120]</t>
         </is>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>9</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>1487.013579701121</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>36.10479999999984</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>4.716447445297733E-09</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>-6379.8136</v>
       </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>91 [77-108]</t>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>102 [85-122]</t>
         </is>
       </c>
     </row>
@@ -2018,44 +2125,47 @@
           <t>Phi(~Time + I(Time^2))p(~temp)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36">
+        <v>12</v>
+      </c>
+      <c r="C36" t="inlineStr">
         <is>
           <t>0.87 [0.83-0.897]</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>0.02 [0.02-0.029]</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>0 [0-1]</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>11364 [9486-13683]</t>
         </is>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>7</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>1488.448751741294</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>37.53997204017264</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>2.301290002195606E-09</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>-6374.336</v>
       </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>83 [71-99]</t>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>115 [96-138]</t>
         </is>
       </c>
     </row>
@@ -2065,44 +2175,47 @@
           <t>Phi(~Time + I(Time^2))p(~temp + wind)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37">
+        <v>18</v>
+      </c>
+      <c r="C37" t="inlineStr">
         <is>
           <t>0.87 [0.829-0.899]</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>0.02 [0.02-0.03]</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>0 [0-1]</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>11407 [9514-13746]</t>
         </is>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>8</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>1489.587407965153</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>38.67862826403166</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>1.302312752581007E-09</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <v>-6375.2173</v>
       </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>83 [70-99]</t>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>115 [96-139]</t>
         </is>
       </c>
     </row>
@@ -2112,44 +2225,47 @@
           <t>Phi(~Time)p(~temp)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38">
+        <v>11</v>
+      </c>
+      <c r="C38" t="inlineStr">
         <is>
           <t>0.88 [0.866-0.901]</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>0.02 [0.02-0.029]</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>0 [0-0]</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>10646 [8987-12672]</t>
         </is>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>6</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>1492.166306339341</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>41.25752663822027</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>3.586861657981804E-10</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <v>-6368.6011</v>
       </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>91 [77-108]</t>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>108 [91-128]</t>
         </is>
       </c>
     </row>
@@ -2159,44 +2275,47 @@
           <t>Phi(~Time)p(~temp + wind)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39">
+        <v>17</v>
+      </c>
+      <c r="C39" t="inlineStr">
         <is>
           <t>0.88 [0.862-0.903]</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>0.02 [0.02-0.029]</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>0 [0-1]</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>10770 [9080-12836]</t>
         </is>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>7</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>1492.194151741293</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>41.28537204017243</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>3.537268889411398E-10</v>
       </c>
-      <c r="J39">
+      <c r="K39">
         <v>-6370.5906</v>
       </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>84 [71-99]</t>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>109 [92-130]</t>
         </is>
       </c>
     </row>
@@ -2206,44 +2325,47 @@
           <t>Phi(~Time + I(Time^2))p(~sundur + wind)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40">
+        <v>9</v>
+      </c>
+      <c r="C40" t="inlineStr">
         <is>
           <t>0.87 [0.811-0.917]</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>0.03 [0.021-0.034]</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>0.02 [0.007-0.049]</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>10554 [8841-12666]</t>
         </is>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>8</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>1493.479607965153</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>42.57082826403166</v>
       </c>
-      <c r="I40">
+      <c r="J40">
         <v>1.860093615347205E-10</v>
       </c>
-      <c r="J40">
+      <c r="K40">
         <v>-6371.3251</v>
       </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>83 [70-98]</t>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>107 [89-128]</t>
         </is>
       </c>
     </row>
@@ -2253,44 +2375,47 @@
           <t>Phi(~Time)p(~sundur)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41">
+        <v>5</v>
+      </c>
+      <c r="C41" t="inlineStr">
         <is>
           <t>0.86 [0.821-0.899]</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>0.03 [0.02-0.032]</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>0.02 [0.005-0.053]</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>10612 [8869-12766]</t>
         </is>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>6</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>1493.649306339341</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <v>42.74052663822022</v>
       </c>
-      <c r="I41">
+      <c r="J41">
         <v>1.708776521953947E-10</v>
       </c>
-      <c r="J41">
+      <c r="K41">
         <v>-6367.118</v>
       </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>97 [82-116]</t>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>107 [90-129]</t>
         </is>
       </c>
     </row>
@@ -2300,44 +2425,47 @@
           <t>Phi(~Time)p(~temp + wind)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42">
+        <v>47</v>
+      </c>
+      <c r="C42" t="inlineStr">
         <is>
           <t>0.88 [0.83-0.911]</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>0.03 [0.019-0.035]</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>0.01 [0-0.241]</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>11073 [9163-13458]</t>
         </is>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>8</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>1493.909407965152</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <v>43.00062826403155</v>
       </c>
-      <c r="I42">
+      <c r="J42">
         <v>1.500392615146672E-10</v>
       </c>
-      <c r="J42">
+      <c r="K42">
         <v>-6370.8954</v>
       </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>81 [67-99]</t>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>112 [93-136]</t>
         </is>
       </c>
     </row>
@@ -2347,44 +2475,47 @@
           <t>Phi(~Time)p(~temp)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43">
+        <v>41</v>
+      </c>
+      <c r="C43" t="inlineStr">
         <is>
           <t>0.88 [0.83-0.912]</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>0.03 [0.019-0.035]</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>0.01 [0-0.28]</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>10955 [9030-13370]</t>
         </is>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>7</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>1493.921951741293</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <v>43.01317204017255</v>
       </c>
-      <c r="I43">
+      <c r="J43">
         <v>1.491011769161525E-10</v>
       </c>
-      <c r="J43">
+      <c r="K43">
         <v>-6368.8628</v>
       </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>90 [75-110]</t>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>111 [91-135]</t>
         </is>
       </c>
     </row>
@@ -2394,44 +2525,47 @@
           <t>Phi(~Time)p(~sundur + wind)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44">
+        <v>8</v>
+      </c>
+      <c r="C44" t="inlineStr">
         <is>
           <t>0.86 [0.816-0.897]</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>0.03 [0.02-0.033]</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>0.02 [0.006-0.05]</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>10718 [8975-12868]</t>
         </is>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>7</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>1493.968051741293</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <v>43.05927204017257</v>
       </c>
-      <c r="I44">
+      <c r="J44">
         <v>1.457037011194077E-10</v>
       </c>
-      <c r="J44">
+      <c r="K44">
         <v>-6368.8167</v>
       </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>94 [79-111]</t>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>108 [91-130]</t>
         </is>
       </c>
     </row>
@@ -2441,44 +2575,47 @@
           <t>Phi(~Time + I(Time^2))p(~sundur)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45">
+        <v>6</v>
+      </c>
+      <c r="C45" t="inlineStr">
         <is>
           <t>0.87 [0.814-0.914]</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t>0.03 [0.02-0.032]</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>0.02 [0.005-0.052]</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>10496 [8760-12647]</t>
         </is>
       </c>
-      <c r="F45">
+      <c r="G45">
         <v>7</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>1494.821551741293</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <v>43.91277204017251</v>
       </c>
-      <c r="I45">
+      <c r="J45">
         <v>9.509012396479633E-11</v>
       </c>
-      <c r="J45">
+      <c r="K45">
         <v>-6367.9632</v>
       </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>83 [70-99]</t>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>106 [88-128]</t>
         </is>
       </c>
     </row>
@@ -2488,44 +2625,47 @@
           <t>Phi(~Time + I(Time^2))p(~1)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46">
+        <v>63</v>
+      </c>
+      <c r="C46" t="inlineStr">
         <is>
           <t>0.85 [0.806-0.885]</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t>0.03 [0.024-0.035]</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>0.04 [0.023-0.062]</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>12311 [10275-14818]</t>
         </is>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>8</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <v>1498.609307965153</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <v>47.70052826403162</v>
       </c>
-      <c r="I46">
+      <c r="J46">
         <v>1.430983414391326E-11</v>
       </c>
-      <c r="J46">
+      <c r="K46">
         <v>-6366.1955</v>
       </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>86 [72-103]</t>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>124 [104-150]</t>
         </is>
       </c>
     </row>
@@ -2535,44 +2675,47 @@
           <t>Phi(~Time + I(Time^2))p(~wind)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47">
+        <v>90</v>
+      </c>
+      <c r="C47" t="inlineStr">
         <is>
           <t>0.85 [0.805-0.886]</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t>0.03 [0.024-0.035]</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>0.04 [0.023-0.062]</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>12311 [10275-14821]</t>
         </is>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>9</v>
       </c>
-      <c r="G47">
+      <c r="H47">
         <v>1500.602679701121</v>
       </c>
-      <c r="H47">
+      <c r="I47">
         <v>49.69389999999999</v>
       </c>
-      <c r="I47">
+      <c r="J47">
         <v>5.281769294775616E-12</v>
       </c>
-      <c r="J47">
+      <c r="K47">
         <v>-6366.2245</v>
       </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>98 [83-117]</t>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>124 [104-150]</t>
         </is>
       </c>
     </row>
@@ -2582,44 +2725,47 @@
           <t>Phi(~1)p(~sundur + wind)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48">
+        <v>37</v>
+      </c>
+      <c r="C48" t="inlineStr">
         <is>
           <t>0.87 [0.847-0.89]</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t>0.04 [0.029-0.046]</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>0.06 [0.046-0.071]</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>12321 [10420-14626]</t>
         </is>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>7</v>
       </c>
-      <c r="G48">
+      <c r="H48">
         <v>1502.613651741294</v>
       </c>
-      <c r="H48">
+      <c r="I48">
         <v>51.70487204017263</v>
       </c>
-      <c r="I48">
+      <c r="J48">
         <v>1.932423887529331E-12</v>
       </c>
-      <c r="J48">
+      <c r="K48">
         <v>-6360.1711</v>
       </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>82 [68-100]</t>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>124 [105-148]</t>
         </is>
       </c>
     </row>
@@ -2629,44 +2775,47 @@
           <t>Phi(~1)p(~sundur)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49">
+        <v>34</v>
+      </c>
+      <c r="C49" t="inlineStr">
         <is>
           <t>0.87 [0.846-0.89]</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="D49" t="inlineStr">
         <is>
           <t>0.04 [0.029-0.046]</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>0.06 [0.047-0.071]</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>12253 [10366-14542]</t>
         </is>
       </c>
-      <c r="F49">
+      <c r="G49">
         <v>6</v>
       </c>
-      <c r="G49">
+      <c r="H49">
         <v>1502.815306339341</v>
       </c>
-      <c r="H49">
+      <c r="I49">
         <v>51.90652663822016</v>
       </c>
-      <c r="I49">
+      <c r="J49">
         <v>1.747083482446036E-12</v>
       </c>
-      <c r="J49">
+      <c r="K49">
         <v>-6357.952</v>
       </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>90 [75-110]</t>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>124 [105-147]</t>
         </is>
       </c>
     </row>
@@ -2676,44 +2825,47 @@
           <t>Phi(~Time + I(Time^2))p(~1)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50">
+        <v>33</v>
+      </c>
+      <c r="C50" t="inlineStr">
         <is>
           <t>0.87 [0.83-0.9]</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="D50" t="inlineStr">
         <is>
           <t>0.03 [0.021-0.03]</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>0.03 [0.016-0.758]</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>11234 [9387-13512]</t>
         </is>
       </c>
-      <c r="F50">
+      <c r="G50">
         <v>7</v>
       </c>
-      <c r="G50">
+      <c r="H50">
         <v>1505.829651741293</v>
       </c>
-      <c r="H50">
+      <c r="I50">
         <v>54.92087204017253</v>
       </c>
-      <c r="I50">
+      <c r="J50">
         <v>3.870409085110756E-13</v>
       </c>
-      <c r="J50">
+      <c r="K50">
         <v>-6356.9552</v>
       </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>95 [80-113]</t>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>113 [95-136]</t>
         </is>
       </c>
     </row>
@@ -2723,44 +2875,47 @@
           <t>Phi(~Time + I(Time^2))p(~Time)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51">
+        <v>54</v>
+      </c>
+      <c r="C51" t="inlineStr">
         <is>
           <t>0.88 [0.786-0.939]</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="D51" t="inlineStr">
         <is>
           <t>0.02 [0.014-0.036]</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>0.03 [0.017-0.863]</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>10255 [8064-13177]</t>
         </is>
       </c>
-      <c r="F51">
+      <c r="G51">
         <v>8</v>
       </c>
-      <c r="G51">
+      <c r="H51">
         <v>1506.721207965152</v>
       </c>
-      <c r="H51">
+      <c r="I51">
         <v>55.8124282640315</v>
       </c>
-      <c r="I51">
+      <c r="J51">
         <v>2.47832293681768E-13</v>
       </c>
-      <c r="J51">
+      <c r="K51">
         <v>-6358.0836</v>
       </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>84 [71-100]</t>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>104 [81-133]</t>
         </is>
       </c>
     </row>
@@ -2770,44 +2925,47 @@
           <t>Phi(~Time + I(Time^2))p(~wind)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52">
+        <v>60</v>
+      </c>
+      <c r="C52" t="inlineStr">
         <is>
           <t>0.87 [0.829-0.901]</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="D52" t="inlineStr">
         <is>
           <t>0.03 [0.021-0.031]</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>0.03 [0.016-0.758]</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>11235 [9388-13514]</t>
         </is>
       </c>
-      <c r="F52">
+      <c r="G52">
         <v>8</v>
       </c>
-      <c r="G52">
+      <c r="H52">
         <v>1507.741407965153</v>
       </c>
-      <c r="H52">
+      <c r="I52">
         <v>56.83262826403165</v>
       </c>
-      <c r="I52">
+      <c r="J52">
         <v>1.488073151672149E-13</v>
       </c>
-      <c r="J52">
+      <c r="K52">
         <v>-6357.0633</v>
       </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>85 [71-102]</t>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>113 [95-137]</t>
         </is>
       </c>
     </row>
@@ -2817,44 +2975,47 @@
           <t>Phi(~Time + I(Time^2))p(~Time + I(Time^2))pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53">
+        <v>57</v>
+      </c>
+      <c r="C53" t="inlineStr">
         <is>
           <t>0.87 [0.761-0.937]</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="D53" t="inlineStr">
         <is>
           <t>0.02 [0.014-0.047]</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>0.03 [0.017-0.89]</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>10296 [8224-13005]</t>
         </is>
       </c>
-      <c r="F53">
+      <c r="G53">
         <v>9</v>
       </c>
-      <c r="G53">
+      <c r="H53">
         <v>1508.581679701121</v>
       </c>
-      <c r="H53">
+      <c r="I53">
         <v>57.6728999999998</v>
       </c>
-      <c r="I53">
+      <c r="J53">
         <v>9.776008982713603E-14</v>
       </c>
-      <c r="J53">
+      <c r="K53">
         <v>-6358.2456</v>
       </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>82 [70-98]</t>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>104 [83-131]</t>
         </is>
       </c>
     </row>
@@ -2864,44 +3025,47 @@
           <t>Phi(~Time)p(~1)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54">
+        <v>62</v>
+      </c>
+      <c r="C54" t="inlineStr">
         <is>
           <t>0.89 [0.863-0.904]</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="D54" t="inlineStr">
         <is>
           <t>0.02 [0.021-0.03]</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>0.02 [0.013-0.217]</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>10667 [9003-12700]</t>
         </is>
       </c>
-      <c r="F54">
+      <c r="G54">
         <v>7</v>
       </c>
-      <c r="G54">
+      <c r="H54">
         <v>1510.368151741294</v>
       </c>
-      <c r="H54">
+      <c r="I54">
         <v>59.45937204017264</v>
       </c>
-      <c r="I54">
+      <c r="J54">
         <v>4.001604081853621E-14</v>
       </c>
-      <c r="J54">
+      <c r="K54">
         <v>-6352.4167</v>
       </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>81 [67-98]</t>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>108 [91-128]</t>
         </is>
       </c>
     </row>
@@ -2911,44 +3075,47 @@
           <t>Phi(~Time)p(~Time + I(Time^2))pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55">
+        <v>56</v>
+      </c>
+      <c r="C55" t="inlineStr">
         <is>
           <t>0.87 [0.792-0.919]</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="D55" t="inlineStr">
         <is>
           <t>0.03 [0.016-0.05]</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>0.03 [0.017-0.845]</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>10099 [8190-12552]</t>
         </is>
       </c>
-      <c r="F55">
+      <c r="G55">
         <v>8</v>
       </c>
-      <c r="G55">
+      <c r="H55">
         <v>1510.453707965152</v>
       </c>
-      <c r="H55">
+      <c r="I55">
         <v>59.54492826403157</v>
       </c>
-      <c r="I55">
+      <c r="J55">
         <v>3.834032760301847E-14</v>
       </c>
-      <c r="J55">
+      <c r="K55">
         <v>-6354.351</v>
       </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>76 [60-98]</t>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>102 [83-127]</t>
         </is>
       </c>
     </row>
@@ -2958,44 +3125,47 @@
           <t>Phi(~Time)p(~1)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56">
+        <v>32</v>
+      </c>
+      <c r="C56" t="inlineStr">
         <is>
           <t>0.87 [0.821-0.901]</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="D56" t="inlineStr">
         <is>
           <t>0.03 [0.023-0.04]</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>0.04 [0.018-0.079]</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>11345 [9550-13541]</t>
         </is>
       </c>
-      <c r="F56">
+      <c r="G56">
         <v>6</v>
       </c>
-      <c r="G56">
+      <c r="H56">
         <v>1510.600906339341</v>
       </c>
-      <c r="H56">
+      <c r="I56">
         <v>59.69212663822032</v>
       </c>
-      <c r="I56">
+      <c r="J56">
         <v>3.561985101270756E-14</v>
       </c>
-      <c r="J56">
+      <c r="K56">
         <v>-6350.1665</v>
       </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>87 [72-105]</t>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>115 [96-137]</t>
         </is>
       </c>
     </row>
@@ -3005,44 +3175,47 @@
           <t>Phi(~Time + I(Time^2))p(~Time + I(Time^2))pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57">
+        <v>87</v>
+      </c>
+      <c r="C57" t="inlineStr">
         <is>
           <t>0.87 [0.753-0.936]</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="D57" t="inlineStr">
         <is>
           <t>0.02 [0.014-0.05]</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>0.04 [0.015-0.888]</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>10338 [8260-13055]</t>
         </is>
       </c>
-      <c r="F57">
+      <c r="G57">
         <v>10</v>
       </c>
-      <c r="G57">
+      <c r="H57">
         <v>1510.62997165109</v>
       </c>
-      <c r="H57">
+      <c r="I57">
         <v>59.72119194996935</v>
       </c>
-      <c r="I57">
+      <c r="J57">
         <v>3.510594324268772E-14</v>
       </c>
-      <c r="J57">
+      <c r="K57">
         <v>-6358.2222</v>
       </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>75 [61-93]</t>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>104 [83-132]</t>
         </is>
       </c>
     </row>
@@ -3052,44 +3225,47 @@
           <t>Phi(~Time)p(~wind)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58">
+        <v>59</v>
+      </c>
+      <c r="C58" t="inlineStr">
         <is>
           <t>0.87 [0.82-0.901]</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="D58" t="inlineStr">
         <is>
           <t>0.03 [0.023-0.04]</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>0.03 [0.017-0.08]</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>11399 [9597-13600]</t>
         </is>
       </c>
-      <c r="F58">
+      <c r="G58">
         <v>7</v>
       </c>
-      <c r="G58">
+      <c r="H58">
         <v>1511.407951741293</v>
       </c>
-      <c r="H58">
+      <c r="I58">
         <v>60.49917204017243</v>
       </c>
-      <c r="I58">
+      <c r="J58">
         <v>2.379273766984361E-14</v>
       </c>
-      <c r="J58">
+      <c r="K58">
         <v>-6351.3768</v>
       </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>76 [61-96]</t>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>115 [97-137]</t>
         </is>
       </c>
     </row>
@@ -3099,44 +3275,47 @@
           <t>Phi(~Time)p(~wind)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59">
+        <v>89</v>
+      </c>
+      <c r="C59" t="inlineStr">
         <is>
           <t>0.88 [0.863-0.904]</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="D59" t="inlineStr">
         <is>
           <t>0.03 [0.021-0.03]</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>0.02 [0.013-0.399]</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>10743 [9059-12802]</t>
         </is>
       </c>
-      <c r="F59">
+      <c r="G59">
         <v>8</v>
       </c>
-      <c r="G59">
+      <c r="H59">
         <v>1511.431307965152</v>
       </c>
-      <c r="H59">
+      <c r="I59">
         <v>60.52252826403151</v>
       </c>
-      <c r="I59">
+      <c r="J59">
         <v>2.351649952560896E-14</v>
       </c>
-      <c r="J59">
+      <c r="K59">
         <v>-6353.3734</v>
       </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>95 [81-113]</t>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>109 [92-129]</t>
         </is>
       </c>
     </row>
@@ -3146,44 +3325,47 @@
           <t>Phi(~Time)p(~Time)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60">
+        <v>53</v>
+      </c>
+      <c r="C60" t="inlineStr">
         <is>
           <t>0.88 [0.82-0.921]</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="D60" t="inlineStr">
         <is>
           <t>0.03 [0.018-0.042]</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>0.04 [0.021-0.088]</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>10886 [9023-13209]</t>
         </is>
       </c>
-      <c r="F60">
+      <c r="G60">
         <v>7</v>
       </c>
-      <c r="G60">
+      <c r="H60">
         <v>1511.565451741293</v>
       </c>
-      <c r="H60">
+      <c r="I60">
         <v>60.65667204017245</v>
       </c>
-      <c r="I60">
+      <c r="J60">
         <v>2.19909365657657E-14</v>
       </c>
-      <c r="J60">
+      <c r="K60">
         <v>-6351.2193</v>
       </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>84 [71-101]</t>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>110 [91-133]</t>
         </is>
       </c>
     </row>
@@ -3193,44 +3375,47 @@
           <t>Phi(~Time)p(~Time)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61">
+        <v>83</v>
+      </c>
+      <c r="C61" t="inlineStr">
         <is>
           <t>0.89 [0.838-0.928]</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="D61" t="inlineStr">
         <is>
           <t>0.02 [0.016-0.035]</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>0.02 [0.014-0.491]</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>10159 [8093-12872]</t>
         </is>
       </c>
-      <c r="F61">
+      <c r="G61">
         <v>8</v>
       </c>
-      <c r="G61">
+      <c r="H61">
         <v>1512.031007965152</v>
       </c>
-      <c r="H61">
+      <c r="I61">
         <v>61.12222826403149</v>
       </c>
-      <c r="I61">
+      <c r="J61">
         <v>1.742406474892564E-14</v>
       </c>
-      <c r="J61">
+      <c r="K61">
         <v>-6352.7738</v>
       </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>83 [70-100]</t>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>103 [82-130]</t>
         </is>
       </c>
     </row>
@@ -3240,44 +3425,47 @@
           <t>Phi(~1)p(~Time + I(Time^2))pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62">
+        <v>55</v>
+      </c>
+      <c r="C62" t="inlineStr">
         <is>
           <t>0.92 [0.87-0.947]</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="D62" t="inlineStr">
         <is>
           <t>0.03 [0.018-0.038]</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>0.04 [0.019-0.091]</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>11682 [9688-14161]</t>
         </is>
       </c>
-      <c r="F62">
+      <c r="G62">
         <v>7</v>
       </c>
-      <c r="G62">
+      <c r="H62">
         <v>1513.962751741293</v>
       </c>
-      <c r="H62">
+      <c r="I62">
         <v>63.05397204017254</v>
       </c>
-      <c r="I62">
+      <c r="J62">
         <v>6.632490629348094E-15</v>
       </c>
-      <c r="J62">
+      <c r="K62">
         <v>-6348.822</v>
       </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>93 [78-110]</t>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>118 [98-143]</t>
         </is>
       </c>
     </row>
@@ -3287,44 +3475,47 @@
           <t>Phi(~1)p(~Time + I(Time^2))pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63">
+        <v>25</v>
+      </c>
+      <c r="C63" t="inlineStr">
         <is>
           <t>0.92 [0.873-0.949]</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="D63" t="inlineStr">
         <is>
           <t>0.02 [0.017-0.035]</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>0.03 [0.015-0.059]</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>12735 [10581-15399]</t>
         </is>
       </c>
-      <c r="F63">
+      <c r="G63">
         <v>6</v>
       </c>
-      <c r="G63">
+      <c r="H63">
         <v>1514.087506339341</v>
       </c>
-      <c r="H63">
+      <c r="I63">
         <v>63.17872663822027</v>
       </c>
-      <c r="I63">
+      <c r="J63">
         <v>6.23141288973515E-15</v>
       </c>
-      <c r="J63">
+      <c r="K63">
         <v>-6346.6798</v>
       </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>79 [67-94]</t>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>129 [107-156]</t>
         </is>
       </c>
     </row>
@@ -3334,44 +3525,47 @@
           <t>Phi(~1)p(~temp + wind + sundur)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64">
+        <v>19</v>
+      </c>
+      <c r="C64" t="inlineStr">
         <is>
           <t>0.92 [0.909-0.924]</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="D64" t="inlineStr">
         <is>
           <t>0.02 [0.02-0.029]</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>0 [0-0]</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>13200 [11143-15695]</t>
         </is>
       </c>
-      <c r="F64">
+      <c r="G64">
         <v>7</v>
       </c>
-      <c r="G64">
+      <c r="H64">
         <v>1514.329851741293</v>
       </c>
-      <c r="H64">
+      <c r="I64">
         <v>63.42107204017248</v>
       </c>
-      <c r="I64">
+      <c r="J64">
         <v>5.520289994751856E-15</v>
       </c>
-      <c r="J64">
+      <c r="K64">
         <v>-6348.455</v>
       </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>91 [76-110]</t>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>133 [113-159]</t>
         </is>
       </c>
     </row>
@@ -3381,44 +3575,47 @@
           <t>Phi(~Time)p(~Time + I(Time^2))pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65">
+        <v>26</v>
+      </c>
+      <c r="C65" t="inlineStr">
         <is>
           <t>0.92 [0.825-0.962]</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="D65" t="inlineStr">
         <is>
           <t>0.02 [0.017-0.036]</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>0.03 [0.015-0.059]</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>12737 [10434-15632]</t>
         </is>
       </c>
-      <c r="F65">
+      <c r="G65">
         <v>7</v>
       </c>
-      <c r="G65">
+      <c r="H65">
         <v>1516.104951741293</v>
       </c>
-      <c r="H65">
+      <c r="I65">
         <v>65.19617204017254</v>
       </c>
-      <c r="I65">
+      <c r="J65">
         <v>2.272499652581767E-15</v>
       </c>
-      <c r="J65">
+      <c r="K65">
         <v>-6346.6799</v>
       </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>90 [76-106]</t>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>129 [105-158]</t>
         </is>
       </c>
     </row>
@@ -3428,44 +3625,47 @@
           <t>Phi(~1)p(~Time + I(Time^2))pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66">
+        <v>85</v>
+      </c>
+      <c r="C66" t="inlineStr">
         <is>
           <t>0.94 [0.9-0.966]</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="D66" t="inlineStr">
         <is>
           <t>0.02 [0.015-0.028]</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>0.02 [0.009-0.308]</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>11297 [8945-14392]</t>
         </is>
       </c>
-      <c r="F66">
+      <c r="G66">
         <v>8</v>
       </c>
-      <c r="G66">
+      <c r="H66">
         <v>1517.504907965152</v>
       </c>
-      <c r="H66">
+      <c r="I66">
         <v>66.59612826403145</v>
       </c>
-      <c r="I66">
+      <c r="J66">
         <v>1.12851463108072E-15</v>
       </c>
-      <c r="J66">
+      <c r="K66">
         <v>-6347.2998</v>
       </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>84 [71-99]</t>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>114 [90-145]</t>
         </is>
       </c>
     </row>
@@ -3475,44 +3675,47 @@
           <t>Phi(~Time)p(~1)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67">
+        <v>2</v>
+      </c>
+      <c r="C67" t="inlineStr">
         <is>
           <t>0.88 [0.841-0.913]</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="D67" t="inlineStr">
         <is>
           <t>0.02 [0.019-0.03]</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>0 [0-0.83]</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>10360 [8620-12524]</t>
         </is>
       </c>
-      <c r="F67">
+      <c r="G67">
         <v>5</v>
       </c>
-      <c r="G67">
+      <c r="H67">
         <v>1517.782867080745</v>
       </c>
-      <c r="H67">
+      <c r="I67">
         <v>66.87408737962437</v>
       </c>
-      <c r="I67">
+      <c r="J67">
         <v>0</v>
       </c>
-      <c r="J67">
+      <c r="K67">
         <v>-6340.9695</v>
       </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>83 [70-99]</t>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>105 [87-127]</t>
         </is>
       </c>
     </row>
@@ -3522,44 +3725,47 @@
           <t>Phi(~Time)p(~wind)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68">
+        <v>29</v>
+      </c>
+      <c r="C68" t="inlineStr">
         <is>
           <t>0.88 [0.838-0.911]</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="D68" t="inlineStr">
         <is>
           <t>0.02 [0.019-0.031]</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>0 [0-0.448]</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>10471 [8723-12642]</t>
         </is>
       </c>
-      <c r="F68">
+      <c r="G68">
         <v>6</v>
       </c>
-      <c r="G68">
+      <c r="H68">
         <v>1518.790606339341</v>
       </c>
-      <c r="H68">
+      <c r="I68">
         <v>67.88182663822022</v>
       </c>
-      <c r="I68">
+      <c r="J68">
         <v>0</v>
       </c>
-      <c r="J68">
+      <c r="K68">
         <v>-6341.9768</v>
       </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>91 [77-107]</t>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>106 [88-128]</t>
         </is>
       </c>
     </row>
@@ -3569,44 +3775,47 @@
           <t>Phi(~Time + I(Time^2))p(~1)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69">
+        <v>3</v>
+      </c>
+      <c r="C69" t="inlineStr">
         <is>
           <t>0.87 [0.821-0.915]</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="D69" t="inlineStr">
         <is>
           <t>0.02 [0.019-0.03]</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>0 [0-0.699]</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>10516 [8733-12737]</t>
         </is>
       </c>
-      <c r="F69">
+      <c r="G69">
         <v>6</v>
       </c>
-      <c r="G69">
+      <c r="H69">
         <v>1518.972406339341</v>
       </c>
-      <c r="H69">
+      <c r="I69">
         <v>68.06362663822028</v>
       </c>
-      <c r="I69">
+      <c r="J69">
         <v>0</v>
       </c>
-      <c r="J69">
+      <c r="K69">
         <v>-6341.795</v>
       </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>84 [71-100]</t>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>106 [88-129]</t>
         </is>
       </c>
     </row>
@@ -3616,44 +3825,47 @@
           <t>Phi(~Time)p(~Time)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70">
+        <v>23</v>
+      </c>
+      <c r="C70" t="inlineStr">
         <is>
           <t>0.88 [0.824-0.915]</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="D70" t="inlineStr">
         <is>
           <t>0.03 [0.017-0.037]</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>0 [0-1]</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>10666 [8593-13342]</t>
         </is>
       </c>
-      <c r="F70">
+      <c r="G70">
         <v>6</v>
       </c>
-      <c r="G70">
+      <c r="H70">
         <v>1519.556906339341</v>
       </c>
-      <c r="H70">
+      <c r="I70">
         <v>68.64812663822022</v>
       </c>
-      <c r="I70">
+      <c r="J70">
         <v>0</v>
       </c>
-      <c r="J70">
+      <c r="K70">
         <v>-6341.2104</v>
       </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>83 [70-98]</t>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>108 [87-135]</t>
         </is>
       </c>
     </row>
@@ -3663,44 +3875,47 @@
           <t>Phi(~Time + I(Time^2))p(~wind)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71">
+        <v>30</v>
+      </c>
+      <c r="C71" t="inlineStr">
         <is>
           <t>0.87 [0.819-0.916]</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="D71" t="inlineStr">
         <is>
           <t>0.02 [0.019-0.031]</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>0 [0-0.446]</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>10561 [8782-12774]</t>
         </is>
       </c>
-      <c r="F71">
+      <c r="G71">
         <v>7</v>
       </c>
-      <c r="G71">
+      <c r="H71">
         <v>1520.410151741293</v>
       </c>
-      <c r="H71">
+      <c r="I71">
         <v>69.50137204017255</v>
       </c>
-      <c r="I71">
+      <c r="J71">
         <v>0</v>
       </c>
-      <c r="J71">
+      <c r="K71">
         <v>-6342.3747</v>
       </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>95 [80-113]</t>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>107 [89-129]</t>
         </is>
       </c>
     </row>
@@ -3710,44 +3925,47 @@
           <t>Phi(~Time + I(Time^2))p(~Time)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72">
+        <v>24</v>
+      </c>
+      <c r="C72" t="inlineStr">
         <is>
           <t>0.87 [0.803-0.918]</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="D72" t="inlineStr">
         <is>
           <t>0.03 [0.017-0.037]</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>0 [0-0.978]</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>10780 [8664-13519]</t>
         </is>
       </c>
-      <c r="F72">
+      <c r="G72">
         <v>7</v>
       </c>
-      <c r="G72">
+      <c r="H72">
         <v>1520.823551741293</v>
       </c>
-      <c r="H72">
+      <c r="I72">
         <v>69.91477204017247</v>
       </c>
-      <c r="I72">
+      <c r="J72">
         <v>0</v>
       </c>
-      <c r="J72">
+      <c r="K72">
         <v>-6341.9612</v>
       </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>86 [73-102]</t>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>109 [88-137]</t>
         </is>
       </c>
     </row>
@@ -3757,44 +3975,47 @@
           <t>Phi(~1)p(~temp + sundur)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73">
+        <v>13</v>
+      </c>
+      <c r="C73" t="inlineStr">
         <is>
           <t>0.92 [0.912-0.927]</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="D73" t="inlineStr">
         <is>
           <t>0.02 [0.02-0.028]</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>0 [0-1]</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>12978 [10963-15421]</t>
         </is>
       </c>
-      <c r="F73">
+      <c r="G73">
         <v>6</v>
       </c>
-      <c r="G73">
+      <c r="H73">
         <v>1522.758506339341</v>
       </c>
-      <c r="H73">
+      <c r="I73">
         <v>71.84972663822032</v>
       </c>
-      <c r="I73">
+      <c r="J73">
         <v>0</v>
       </c>
-      <c r="J73">
+      <c r="K73">
         <v>-6338.0088</v>
       </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>90 [75-110]</t>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>131 [111-156]</t>
         </is>
       </c>
     </row>
@@ -3804,44 +4025,47 @@
           <t>Phi(~1)p(~temp + wind)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74">
+        <v>76</v>
+      </c>
+      <c r="C74" t="inlineStr">
         <is>
           <t>0.87 [0.843-0.893]</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="D74" t="inlineStr">
         <is>
           <t>0.03 [0.027-0.045]</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>0.04 [0.025-0.069]</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>12963 [10925-15441]</t>
         </is>
       </c>
-      <c r="F74">
+      <c r="G74">
         <v>8</v>
       </c>
-      <c r="G74">
+      <c r="H74">
         <v>1523.470507965153</v>
       </c>
-      <c r="H74">
+      <c r="I74">
         <v>72.56172826403167</v>
       </c>
-      <c r="I74">
+      <c r="J74">
         <v>0</v>
       </c>
-      <c r="J74">
+      <c r="K74">
         <v>-6341.3342</v>
       </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>90 [76-107]</t>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>131 [110-156]</t>
         </is>
       </c>
     </row>
@@ -3851,44 +4075,47 @@
           <t>Phi(~1)p(~temp)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75">
+        <v>70</v>
+      </c>
+      <c r="C75" t="inlineStr">
         <is>
           <t>0.87 [0.841-0.891]</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="D75" t="inlineStr">
         <is>
           <t>0.04 [0.028-0.046]</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>0.04 [0.027-0.069]</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>12839 [10827-15284]</t>
         </is>
       </c>
-      <c r="F75">
+      <c r="G75">
         <v>7</v>
       </c>
-      <c r="G75">
+      <c r="H75">
         <v>1523.560951741293</v>
       </c>
-      <c r="H75">
+      <c r="I75">
         <v>72.65217204017245</v>
       </c>
-      <c r="I75">
+      <c r="J75">
         <v>0</v>
       </c>
-      <c r="J75">
+      <c r="K75">
         <v>-6339.2238</v>
       </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>84 [71-100]</t>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>130 [109-154]</t>
         </is>
       </c>
     </row>
@@ -3898,44 +4125,47 @@
           <t>Phi(~1)p(~temp + wind)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76">
+        <v>46</v>
+      </c>
+      <c r="C76" t="inlineStr">
         <is>
           <t>0.88 [0.858-0.902]</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="D76" t="inlineStr">
         <is>
           <t>0.03 [0.025-0.041]</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>0.04 [0.026-0.062]</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>13277 [11216-15775]</t>
         </is>
       </c>
-      <c r="F76">
+      <c r="G76">
         <v>7</v>
       </c>
-      <c r="G76">
+      <c r="H76">
         <v>1524.191251741293</v>
       </c>
-      <c r="H76">
+      <c r="I76">
         <v>73.28247204017248</v>
       </c>
-      <c r="I76">
+      <c r="J76">
         <v>0</v>
       </c>
-      <c r="J76">
+      <c r="K76">
         <v>-6338.5935</v>
       </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>86 [72-103]</t>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>134 [113-159]</t>
         </is>
       </c>
     </row>
@@ -3945,44 +4175,47 @@
           <t>Phi(~1)p(~temp)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77">
+        <v>40</v>
+      </c>
+      <c r="C77" t="inlineStr">
         <is>
           <t>0.88 [0.857-0.901]</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="D77" t="inlineStr">
         <is>
           <t>0.03 [0.025-0.041]</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>0.04 [0.028-0.062]</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>13162 [11124-15631]</t>
         </is>
       </c>
-      <c r="F77">
+      <c r="G77">
         <v>6</v>
       </c>
-      <c r="G77">
+      <c r="H77">
         <v>1524.728706339341</v>
       </c>
-      <c r="H77">
+      <c r="I77">
         <v>73.81992663822029</v>
       </c>
-      <c r="I77">
+      <c r="J77">
         <v>0</v>
       </c>
-      <c r="J77">
+      <c r="K77">
         <v>-6336.0387</v>
       </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>96 [81-114]</t>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>133 [112-158]</t>
         </is>
       </c>
     </row>
@@ -3992,44 +4225,47 @@
           <t>Phi(~Time + I(Time^2))p(~Time)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78">
+        <v>84</v>
+      </c>
+      <c r="C78" t="inlineStr">
         <is>
           <t>0.96 [0.838-0.97]</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="D78" t="inlineStr">
         <is>
           <t>0.03 [0.023-0.038]</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>0.07 [0.052-0.104]</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>10538 [8830-12644]</t>
         </is>
       </c>
-      <c r="F78">
+      <c r="G78">
         <v>9</v>
       </c>
-      <c r="G78">
+      <c r="H78">
         <v>1526.675179701121</v>
       </c>
-      <c r="H78">
+      <c r="I78">
         <v>75.76639999999998</v>
       </c>
-      <c r="I78">
+      <c r="J78">
         <v>0</v>
       </c>
-      <c r="J78">
+      <c r="K78">
         <v>-6340.1521</v>
       </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>86 [72-102]</t>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>106 [89-128]</t>
         </is>
       </c>
     </row>
@@ -4039,44 +4275,47 @@
           <t>Phi(~1)p(~Time)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79">
+        <v>82</v>
+      </c>
+      <c r="C79" t="inlineStr">
         <is>
           <t>0.9 [0.86-0.934]</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="D79" t="inlineStr">
         <is>
           <t>0.03 [0.022-0.045]</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>0.06 [0.045-0.09]</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>10891 [9223-12918]</t>
         </is>
       </c>
-      <c r="F79">
+      <c r="G79">
         <v>7</v>
       </c>
-      <c r="G79">
+      <c r="H79">
         <v>1528.162951741293</v>
       </c>
-      <c r="H79">
+      <c r="I79">
         <v>77.25417204017253</v>
       </c>
-      <c r="I79">
+      <c r="J79">
         <v>0</v>
       </c>
-      <c r="J79">
+      <c r="K79">
         <v>-6334.6218</v>
       </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>85 [72-102]</t>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>110 [93-130]</t>
         </is>
       </c>
     </row>
@@ -4086,44 +4325,47 @@
           <t>Phi(~1)p(~Time)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80">
+        <v>52</v>
+      </c>
+      <c r="C80" t="inlineStr">
         <is>
           <t>0.91 [0.869-0.942]</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="D80" t="inlineStr">
         <is>
           <t>0.03 [0.021-0.042]</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>0.06 [0.045-0.085]</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>11132 [9409-13231]</t>
         </is>
       </c>
-      <c r="F80">
+      <c r="G80">
         <v>6</v>
       </c>
-      <c r="G80">
+      <c r="H80">
         <v>1532.820006339341</v>
       </c>
-      <c r="H80">
+      <c r="I80">
         <v>81.91122663822034</v>
       </c>
-      <c r="I80">
+      <c r="J80">
         <v>0</v>
       </c>
-      <c r="J80">
+      <c r="K80">
         <v>-6327.9473</v>
       </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>92 [77-109]</t>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>112 [95-134]</t>
         </is>
       </c>
     </row>
@@ -4133,44 +4375,47 @@
           <t>Phi(~1)p(~1)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81">
+        <v>61</v>
+      </c>
+      <c r="C81" t="inlineStr">
         <is>
           <t>0.86 [0.836-0.886]</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="D81" t="inlineStr">
         <is>
           <t>0.04 [0.029-0.048]</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>0.05 [0.038-0.073]</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>12500 [10552-14867]</t>
         </is>
       </c>
-      <c r="F81">
+      <c r="G81">
         <v>6</v>
       </c>
-      <c r="G81">
+      <c r="H81">
         <v>1537.733106339341</v>
       </c>
-      <c r="H81">
+      <c r="I81">
         <v>86.82432663822033</v>
       </c>
-      <c r="I81">
+      <c r="J81">
         <v>0</v>
       </c>
-      <c r="J81">
+      <c r="K81">
         <v>-6323.0343</v>
       </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>85 [71-101]</t>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>126 [107-150]</t>
         </is>
       </c>
     </row>
@@ -4180,44 +4425,47 @@
           <t>Phi(~1)p(~wind)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82">
+        <v>88</v>
+      </c>
+      <c r="C82" t="inlineStr">
         <is>
           <t>0.86 [0.838-0.887]</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="D82" t="inlineStr">
         <is>
           <t>0.04 [0.029-0.048]</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>0.05 [0.037-0.073]</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>12583 [10617-14971]</t>
         </is>
       </c>
-      <c r="F82">
+      <c r="G82">
         <v>7</v>
       </c>
-      <c r="G82">
+      <c r="H82">
         <v>1538.563251741293</v>
       </c>
-      <c r="H82">
+      <c r="I82">
         <v>87.65447204017255</v>
       </c>
-      <c r="I82">
+      <c r="J82">
         <v>0</v>
       </c>
-      <c r="J82">
+      <c r="K82">
         <v>-6324.2215</v>
       </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>85 [71-102]</t>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>127 [107-151]</t>
         </is>
       </c>
     </row>
@@ -4227,44 +4475,47 @@
           <t>Phi(~1)p(~1)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83">
+        <v>31</v>
+      </c>
+      <c r="C83" t="inlineStr">
         <is>
           <t>0.87 [0.849-0.894]</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="D83" t="inlineStr">
         <is>
           <t>0.03 [0.028-0.044]</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>0.05 [0.04-0.067]</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>12784 [10811-15174]</t>
         </is>
       </c>
-      <c r="F83">
+      <c r="G83">
         <v>5</v>
       </c>
-      <c r="G83">
+      <c r="H83">
         <v>1540.514367080745</v>
       </c>
-      <c r="H83">
+      <c r="I83">
         <v>89.60558737962447</v>
       </c>
-      <c r="I83">
+      <c r="J83">
         <v>0</v>
       </c>
-      <c r="J83">
+      <c r="K83">
         <v>-6318.238</v>
       </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>81 [68-96]</t>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>129 [109-153]</t>
         </is>
       </c>
     </row>
@@ -4274,44 +4525,47 @@
           <t>Phi(~1)p(~wind)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84">
+        <v>58</v>
+      </c>
+      <c r="C84" t="inlineStr">
         <is>
           <t>0.87 [0.85-0.894]</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="D84" t="inlineStr">
         <is>
           <t>0.03 [0.027-0.044]</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>0.05 [0.039-0.067]</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>12856 [10868-15265]</t>
         </is>
       </c>
-      <c r="F84">
+      <c r="G84">
         <v>6</v>
       </c>
-      <c r="G84">
+      <c r="H84">
         <v>1541.078106339341</v>
       </c>
-      <c r="H84">
+      <c r="I84">
         <v>90.16932663822035</v>
       </c>
-      <c r="I84">
+      <c r="J84">
         <v>0</v>
       </c>
-      <c r="J84">
+      <c r="K84">
         <v>-6319.6892</v>
       </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>75 [60-95]</t>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>130 [110-154]</t>
         </is>
       </c>
     </row>
@@ -4321,44 +4575,47 @@
           <t>Phi(~1)p(~temp + wind)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85">
+        <v>16</v>
+      </c>
+      <c r="C85" t="inlineStr">
         <is>
           <t>0.91 [0.906-0.92]</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="D85" t="inlineStr">
         <is>
           <t>0.02 [0.02-0.029]</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>0 [0-0]</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>13553 [11444-16109]</t>
         </is>
       </c>
-      <c r="F85">
+      <c r="G85">
         <v>6</v>
       </c>
-      <c r="G85">
+      <c r="H85">
         <v>1547.134206339341</v>
       </c>
-      <c r="H85">
+      <c r="I85">
         <v>96.22542663822037</v>
       </c>
-      <c r="I85">
+      <c r="J85">
         <v>0</v>
       </c>
-      <c r="J85">
+      <c r="K85">
         <v>-6313.6331</v>
       </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>78 [65-94]</t>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>137 [116-163]</t>
         </is>
       </c>
     </row>
@@ -4368,44 +4625,47 @@
           <t>Phi(~1)p(~temp)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B86">
+        <v>10</v>
+      </c>
+      <c r="C86" t="inlineStr">
         <is>
           <t>0.92 [0.908-0.922]</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="D86" t="inlineStr">
         <is>
           <t>0.02 [0.02-0.029]</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>0 [0-0]</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>13382 [11306-15898]</t>
         </is>
       </c>
-      <c r="F86">
+      <c r="G86">
         <v>5</v>
       </c>
-      <c r="G86">
+      <c r="H86">
         <v>1551.145567080745</v>
       </c>
-      <c r="H86">
+      <c r="I86">
         <v>100.2367873796245</v>
       </c>
-      <c r="I86">
+      <c r="J86">
         <v>0</v>
       </c>
-      <c r="J86">
+      <c r="K86">
         <v>-6307.6069</v>
       </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>84 [66-107]</t>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>135 [114-161]</t>
         </is>
       </c>
     </row>
@@ -4415,44 +4675,47 @@
           <t>Phi(~1)p(~Time)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B87">
+        <v>22</v>
+      </c>
+      <c r="C87" t="inlineStr">
         <is>
           <t>0.96 [0.907-0.986]</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="D87" t="inlineStr">
         <is>
           <t>0.03 [0.023-0.038]</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>0.08 [0.078-0.083]</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>17758 [14871-21268]</t>
         </is>
       </c>
-      <c r="F87">
+      <c r="G87">
         <v>5</v>
       </c>
-      <c r="G87">
+      <c r="H87">
         <v>1566.417367080745</v>
       </c>
-      <c r="H87">
+      <c r="I87">
         <v>115.5085873796245</v>
       </c>
-      <c r="I87">
+      <c r="J87">
         <v>0</v>
       </c>
-      <c r="J87">
+      <c r="K87">
         <v>-6292.335</v>
       </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>75 [62-90]</t>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>179 [150-215]</t>
         </is>
       </c>
     </row>
@@ -4462,44 +4725,47 @@
           <t>Phi(~1)p(~sundur + wind)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88">
+        <v>7</v>
+      </c>
+      <c r="C88" t="inlineStr">
         <is>
           <t>0.93 [0.921-0.936]</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="D88" t="inlineStr">
         <is>
           <t>0.02 [0.018-0.027]</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>0 [0-0]</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>12304 [10405-14607]</t>
         </is>
       </c>
-      <c r="F88">
+      <c r="G88">
         <v>6</v>
       </c>
-      <c r="G88">
+      <c r="H88">
         <v>1593.062806339341</v>
       </c>
-      <c r="H88">
+      <c r="I88">
         <v>142.1540266382203</v>
       </c>
-      <c r="I88">
+      <c r="J88">
         <v>0</v>
       </c>
-      <c r="J88">
+      <c r="K88">
         <v>-6267.7045</v>
       </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>77 [61-97]</t>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>124 [105-148]</t>
         </is>
       </c>
     </row>
@@ -4509,44 +4775,47 @@
           <t>Phi(~1)p(~sundur)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B89">
+        <v>4</v>
+      </c>
+      <c r="C89" t="inlineStr">
         <is>
           <t>0.93 [0.923-0.937]</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="D89" t="inlineStr">
         <is>
           <t>0.02 [0.018-0.026]</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>0 [0-0]</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>12170 [10297-14442]</t>
         </is>
       </c>
-      <c r="F89">
+      <c r="G89">
         <v>5</v>
       </c>
-      <c r="G89">
+      <c r="H89">
         <v>1596.588167080745</v>
       </c>
-      <c r="H89">
+      <c r="I89">
         <v>145.6793873796244</v>
       </c>
-      <c r="I89">
+      <c r="J89">
         <v>0</v>
       </c>
-      <c r="J89">
+      <c r="K89">
         <v>-6262.1642</v>
       </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>93 [79-111]</t>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>123 [104-146]</t>
         </is>
       </c>
     </row>
@@ -4556,44 +4825,47 @@
           <t>Phi(~1)p(~wind)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B90">
+        <v>28</v>
+      </c>
+      <c r="C90" t="inlineStr">
         <is>
           <t>0.92 [0.916-0.93]</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="D90" t="inlineStr">
         <is>
           <t>0.02 [0.019-0.028]</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>0 [0-1]</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>12745 [10781-15125]</t>
         </is>
       </c>
-      <c r="F90">
+      <c r="G90">
         <v>5</v>
       </c>
-      <c r="G90">
+      <c r="H90">
         <v>1608.330867080745</v>
       </c>
-      <c r="H90">
+      <c r="I90">
         <v>157.4220873796244</v>
       </c>
-      <c r="I90">
+      <c r="J90">
         <v>0</v>
       </c>
-      <c r="J90">
+      <c r="K90">
         <v>-6250.4215</v>
       </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>80 [67-95]</t>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>129 [109-153]</t>
         </is>
       </c>
     </row>
@@ -4603,44 +4875,47 @@
           <t>Phi(~1)p(~1)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="C91" t="inlineStr">
         <is>
           <t>0.93 [0.918-0.931]</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="D91" t="inlineStr">
         <is>
           <t>0.02 [0.019-0.027]</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>0 [0-0]</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>12609 [10671-14956]</t>
         </is>
       </c>
-      <c r="F91">
+      <c r="G91">
         <v>4</v>
       </c>
-      <c r="G91">
+      <c r="H91">
         <v>1610.944129298572</v>
       </c>
-      <c r="H91">
+      <c r="I91">
         <v>160.0353495974514</v>
       </c>
-      <c r="I91">
+      <c r="J91">
         <v>0</v>
       </c>
-      <c r="J91">
+      <c r="K91">
         <v>-6245.7958</v>
       </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>91 [76-110]</t>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>127 [108-151]</t>
         </is>
       </c>
     </row>
